--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_181.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_181.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29092-d75637-Reviews-Days_Inn_Suites_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>1190</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>1229</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Days-Inn-Suites-By-Wyndham-Anaheim-At-Disneyland-Park.h3280.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_181.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_181.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="419">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1141 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r588544123-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>29092</t>
+  </si>
+  <si>
+    <t>75637</t>
+  </si>
+  <si>
+    <t>588544123</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Adventures By Disney Spain</t>
+  </si>
+  <si>
+    <t>My husband and I had a wonderful 9 days in Spain during adult only trip with Adventures By Disney. We enjoyed seeing the wonderful county from Barcelona where we visited Picasso Museum, Park Guelph and La Sagrada Familia, &amp; Pueblo Espanol. Then a flight to Madrid to see the royal palace and armory. In Segovia we saw the summer palace gardens, El Alcazar and Cathedral. We took the bullet train to Cordoba. So much more. Ending at the sea shore of Marbella. So beautiful. Great adventure guides and traveling companions. We recommend for anyone who likes adventure and learning about Spain.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r587974357-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>587974357</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>Good spot for Disneyland</t>
+  </si>
+  <si>
+    <t>Stayed for a few days, room was clean.  Breakfast is basic carbs.  Front desk staff friendly and helpful.Parking is insufficient.  Pool area a nice spot to relax or have a picnic.Location is good- right next door is convenience store.  Across street is another, along with a Taco Bell.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Stayed for a few days, room was clean.  Breakfast is basic carbs.  Front desk staff friendly and helpful.Parking is insufficient.  Pool area a nice spot to relax or have a picnic.Location is good- right next door is convenience store.  Across street is another, along with a Taco Bell.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r587433588-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>587433588</t>
+  </si>
+  <si>
+    <t>06/14/2018</t>
+  </si>
+  <si>
+    <t>The wifi, the breakfast, and the pillows.</t>
+  </si>
+  <si>
+    <t>Super slow internet, it cuts out even while performing aspeedtest. The breakfast lady makes waffles so thin, you can see through parts of it. Pillows are 12x18 inches. The airconditioning unit is so noisy inside the room I can still hear it in my head.MoreShow less</t>
+  </si>
+  <si>
+    <t>Super slow internet, it cuts out even while performing aspeedtest. The breakfast lady makes waffles so thin, you can see through parts of it. Pillows are 12x18 inches. The airconditioning unit is so noisy inside the room I can still hear it in my head.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r580275803-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>580275803</t>
+  </si>
+  <si>
+    <t>05/14/2018</t>
+  </si>
+  <si>
+    <t>Incorrect information and rude staff</t>
+  </si>
+  <si>
+    <t>I don't recommend this hotel if you can help it. We were lied to about shuttle times then treated badly after asking about it. Then we asked for a wake up call that we never received. We were also treated badly for bringing this up as well. There were stains on the blankets of the pull out couch.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded May 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2018</t>
+  </si>
+  <si>
+    <t>I don't recommend this hotel if you can help it. We were lied to about shuttle times then treated badly after asking about it. Then we asked for a wake up call that we never received. We were also treated badly for bringing this up as well. There were stains on the blankets of the pull out couch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r578897371-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>578897371</t>
+  </si>
+  <si>
+    <t>05/08/2018</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>they people ate the front desk were great.  the room was fine.  good shower.  get a rtd pass at 4 points and the trip to disney is ok.  the wifi is spotty but i dont stay at a motel for the wifi.  i would stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded May 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2018</t>
+  </si>
+  <si>
+    <t>they people ate the front desk were great.  the room was fine.  good shower.  get a rtd pass at 4 points and the trip to disney is ok.  the wifi is spotty but i dont stay at a motel for the wifi.  i would stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r578561890-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>578561890</t>
+  </si>
+  <si>
+    <t>05/07/2018</t>
+  </si>
+  <si>
+    <t>We will be back.</t>
+  </si>
+  <si>
+    <t>The place was clean. Beds nice and soft.  We will stay there again. Walking distance from Disneyland. It was better then we had expected. It was really great they have a shuttle that will take you to and from Disneyland. MoreShow less</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2018</t>
+  </si>
+  <si>
+    <t>The place was clean. Beds nice and soft.  We will stay there again. Walking distance from Disneyland. It was better then we had expected. It was really great they have a shuttle that will take you to and from Disneyland. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r576621083-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>576621083</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>Absolutely perfect stay</t>
+  </si>
+  <si>
+    <t>If you are doing Disneyland this place is perfect. It is not too big, very safe and very clean, room &amp; bedding looked brand new. Great internet, large counter outside bathroom with sink and tons of space for everyone to get ready. We loved having a little fridge (bigger than a mini-fridge with a small freezer), microwave and coffee maker. Free breakfast was perfect to get us out in the morning with waffles, toast &amp; raisin bread, yogurt, oatmeal and cereals, juice and coffee and bananas. Everything was restocked during the morning. The breakfast attendant was lovely and helpful. We didn’t plan on using the shuttle since Disney is only a 15 minute walk but we did take it sometimes, Is was very convenient, a 5 minute trip and there was always room when we showed up a few minutes ahead of time. The shuttle is extremely punctual, definitely don’t expect for it to wait for you!Taco Bell is across the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded April 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2018</t>
+  </si>
+  <si>
+    <t>If you are doing Disneyland this place is perfect. It is not too big, very safe and very clean, room &amp; bedding looked brand new. Great internet, large counter outside bathroom with sink and tons of space for everyone to get ready. We loved having a little fridge (bigger than a mini-fridge with a small freezer), microwave and coffee maker. Free breakfast was perfect to get us out in the morning with waffles, toast &amp; raisin bread, yogurt, oatmeal and cereals, juice and coffee and bananas. Everything was restocked during the morning. The breakfast attendant was lovely and helpful. We didn’t plan on using the shuttle since Disney is only a 15 minute walk but we did take it sometimes, Is was very convenient, a 5 minute trip and there was always room when we showed up a few minutes ahead of time. The shuttle is extremely punctual, definitely don’t expect for it to wait for you!Taco Bell is across the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r574053122-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>574053122</t>
+  </si>
+  <si>
+    <t>04/17/2018</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded April 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2018</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r573286963-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>573286963</t>
+  </si>
+  <si>
+    <t>04/14/2018</t>
+  </si>
+  <si>
+    <t>Convention</t>
+  </si>
+  <si>
+    <t>Was helpful getting us checked in before check in time. Was able to get a ground floor as requested. There was someone always at the counter.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded April 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2018</t>
+  </si>
+  <si>
+    <t>Was helpful getting us checked in before check in time. Was able to get a ground floor as requested. There was someone always at the counter.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r572185840-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>572185840</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>Not bad for quick stay - would stay again</t>
+  </si>
+  <si>
+    <t>Recently stayed here for a quick overnight trip to Disneyland and was pleasantly surprised! The front staff was friendly and helpful and check-in was quick. The room was very spacious and clean, and the bed was one of the more comfortable ones I've experienced in the Anaheim area. We were towards the back of the unit and it was pretty quiet. WiFi worked well. We would have liked the shuttle to run a bit more often, particularly in the afternoon as we wanted to check in and take a break from Disneyland for a bit. We ended up just taking Lyft and it was a short ride, about $5 I believe. The hotel is a bit tricky to get to coming from the direction of the parks, but it wasn't a super big deal. The breakfast is the standard breads, cereal, fruit, etc. I believe they did have waffles as well. Overall, we were happy with the hotel and would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Recently stayed here for a quick overnight trip to Disneyland and was pleasantly surprised! The front staff was friendly and helpful and check-in was quick. The room was very spacious and clean, and the bed was one of the more comfortable ones I've experienced in the Anaheim area. We were towards the back of the unit and it was pretty quiet. WiFi worked well. We would have liked the shuttle to run a bit more often, particularly in the afternoon as we wanted to check in and take a break from Disneyland for a bit. We ended up just taking Lyft and it was a short ride, about $5 I believe. The hotel is a bit tricky to get to coming from the direction of the parks, but it wasn't a super big deal. The breakfast is the standard breads, cereal, fruit, etc. I believe they did have waffles as well. Overall, we were happy with the hotel and would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r571926356-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>571926356</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>Room was great, microwave &amp; small refrigerator in the room. Breakfast was light but fine. Hotel had shuttle to Disneyland for the guest. You could take large and small strollers on the shuttle. Very convenient for guests. However, I was told that they could not accommodate a scooter. I explained, mine could be taken apart and asked if it could be placed on rack on back, but I was told it could not be. I either took the ART bus to the park or just rode my scooter over. Did like clean rooms, and convenient location ais a plus.MoreShow less</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded April 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2018</t>
+  </si>
+  <si>
+    <t>Room was great, microwave &amp; small refrigerator in the room. Breakfast was light but fine. Hotel had shuttle to Disneyland for the guest. You could take large and small strollers on the shuttle. Very convenient for guests. However, I was told that they could not accommodate a scooter. I explained, mine could be taken apart and asked if it could be placed on rack on back, but I was told it could not be. I either took the ART bus to the park or just rode my scooter over. Did like clean rooms, and convenient location ais a plus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r571905357-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>571905357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREE ROOM! (If you want to stay with awful management) </t>
+  </si>
+  <si>
+    <t>We booked the hotel in February 2018 for a trip to Disney. I figured we will be just sleeping there in between park time so it really doesn’t matter about the hotel really. But, unfortunately due to medical issues I was forced to cancel our trip. I called Expedia (who I booked through) and gave them the explanation and so they called this hotel AN ENTIRE MONTH PRIOR TO MY STAY to see about canceling our reservation, but after explaining to the front desk my medical issues the management still said No, they would cancel it of course, but I would get absolutely no money back which they make you pay in full at time of reservation. Ridiculous I gave the ample time to find new guests, but they are awful human beings who only care about money. Thankfully, I booked with insurance and was able to get a full refund through them, but this disgusting hotel will be renting out my room that has been PAID FOR again to some unsuspecting patron and making double off of my misfortune. So, if you’re looking for a room 4/23-4/27 this hotel already has one paid for, go ahead and let them know.MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked the hotel in February 2018 for a trip to Disney. I figured we will be just sleeping there in between park time so it really doesn’t matter about the hotel really. But, unfortunately due to medical issues I was forced to cancel our trip. I called Expedia (who I booked through) and gave them the explanation and so they called this hotel AN ENTIRE MONTH PRIOR TO MY STAY to see about canceling our reservation, but after explaining to the front desk my medical issues the management still said No, they would cancel it of course, but I would get absolutely no money back which they make you pay in full at time of reservation. Ridiculous I gave the ample time to find new guests, but they are awful human beings who only care about money. Thankfully, I booked with insurance and was able to get a full refund through them, but this disgusting hotel will be renting out my room that has been PAID FOR again to some unsuspecting patron and making double off of my misfortune. So, if you’re looking for a room 4/23-4/27 this hotel already has one paid for, go ahead and let them know.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r569515956-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>569515956</t>
+  </si>
+  <si>
+    <t>03/29/2018</t>
+  </si>
+  <si>
+    <t>RUN</t>
+  </si>
+  <si>
+    <t>Sheets were filthy. Floors made my feet black. Just not kept up. Needs professional help. Got a refund through Expedia and went somewhere else. So many other choices. Don't spend your vacation time here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Sheets were filthy. Floors made my feet black. Just not kept up. Needs professional help. Got a refund through Expedia and went somewhere else. So many other choices. Don't spend your vacation time here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r569503316-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>569503316</t>
+  </si>
+  <si>
+    <t>Lovely room, terrible night attendant</t>
+  </si>
+  <si>
+    <t>Our check in went very well and we were pleasantly happy with the general cleanliness and appearance of the room. The room had mild damage to include fraying carpet, broken bathroom door lock, and chipped paint on the inside door. Our big problem became parking late at night. The night clerk would not acknowledge us when we walked in because we interrupted his tv show on the computer. We were told parking was guaranteed, but since there was no open spots, we would have to park in an illegal spot and move the car by 7am, even though it was 12:30am. He threated us by saying “if we did not move it, something bad would happen”.  We moved our car when a spot became available to prevent damage, but a vehicle subsequently parked in the same spot we started in had cut tires. He was rude, disrespectful and would not accommodate us in any way. There were several parking spots on the property that were unusable because of poor parking jobs by others, which was the cause of the parking problem.  We will never stay here again because of the disrespect and threats of the night clerk. MoreShow less</t>
+  </si>
+  <si>
+    <t>Our check in went very well and we were pleasantly happy with the general cleanliness and appearance of the room. The room had mild damage to include fraying carpet, broken bathroom door lock, and chipped paint on the inside door. Our big problem became parking late at night. The night clerk would not acknowledge us when we walked in because we interrupted his tv show on the computer. We were told parking was guaranteed, but since there was no open spots, we would have to park in an illegal spot and move the car by 7am, even though it was 12:30am. He threated us by saying “if we did not move it, something bad would happen”.  We moved our car when a spot became available to prevent damage, but a vehicle subsequently parked in the same spot we started in had cut tires. He was rude, disrespectful and would not accommodate us in any way. There were several parking spots on the property that were unusable because of poor parking jobs by others, which was the cause of the parking problem.  We will never stay here again because of the disrespect and threats of the night clerk. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r568104964-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>568104964</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t>Worst staff</t>
+  </si>
+  <si>
+    <t>Throughout my entire  check in time old man who was at front desk did not get up his chair and no eye contact either. While checking out the young guy at night refused to give receipt upon many requests. I stayed by night window for 10 mins but he never came at window even after calling the desk or ringing the night bellMoreShow less</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded March 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2018</t>
+  </si>
+  <si>
+    <t>Throughout my entire  check in time old man who was at front desk did not get up his chair and no eye contact either. While checking out the young guy at night refused to give receipt upon many requests. I stayed by night window for 10 mins but he never came at window even after calling the desk or ringing the night bellMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r566686984-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>566686984</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t>The hotel’s location is perfect for Disneyland and the room...</t>
+  </si>
+  <si>
+    <t>The hotel’s location is perfect for Disneyland and the room was very clean had a refrigerator and microwave, which was awesome!MoreShow less</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded March 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2018</t>
+  </si>
+  <si>
+    <t>The hotel’s location is perfect for Disneyland and the room was very clean had a refrigerator and microwave, which was awesome!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r566311132-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>566311132</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t>Not great even for a 2 star</t>
+  </si>
+  <si>
+    <t>Pros: close to Disney, 15 minute walk. Can't hear freeway Cons: messed up reservation when dates were changed (cancelled us and had to rebook once we were there checking in- could have been very catastrophic as all other hotels were full), paper thin walls, you can hear the people behind you. If upstairs room people start showering you WILL hear the pipes going (don't freak out, no one is trying to get into your room), bathroom tub chipped all over the bottom, looks very old. Dead insects inside the lights (to be expected but not that much)overall: stayed here for the free breakfast, turned out to be very very basic (we're not picky on breakfast either but all that was there was cereal, waffles, and toast.) would stay here again based solely on price and competitor availability, not by its own merits.We stay at a lot of 2 stars, this was very poor even in that class.MoreShow less</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded March 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2018</t>
+  </si>
+  <si>
+    <t>Pros: close to Disney, 15 minute walk. Can't hear freeway Cons: messed up reservation when dates were changed (cancelled us and had to rebook once we were there checking in- could have been very catastrophic as all other hotels were full), paper thin walls, you can hear the people behind you. If upstairs room people start showering you WILL hear the pipes going (don't freak out, no one is trying to get into your room), bathroom tub chipped all over the bottom, looks very old. Dead insects inside the lights (to be expected but not that much)overall: stayed here for the free breakfast, turned out to be very very basic (we're not picky on breakfast either but all that was there was cereal, waffles, and toast.) would stay here again based solely on price and competitor availability, not by its own merits.We stay at a lot of 2 stars, this was very poor even in that class.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r565120259-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>565120259</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t>Disneyland stay</t>
+  </si>
+  <si>
+    <t>I stayed there to be close to Disneyland and get a more economical room. Only a 10 minute walk to Disneyland MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded March 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2018</t>
+  </si>
+  <si>
+    <t>I stayed there to be close to Disneyland and get a more economical room. Only a 10 minute walk to Disneyland More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r564097178-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>564097178</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>I declare a Disney do over</t>
+  </si>
+  <si>
+    <t>When you visit a town with a huge attraction such as Disney and attach the Disney to your name you might want to attach some of the same manners. The rooms were nice but the service needs some help, just how I saw other situations handled and then our own you could tell it was just the way management did things.  This is not a corporate hotel it's a personal owned with the name. Read the fine print and be careful. Don't ask for extra pillows for fear of being spoken to in a forien language.  The only thing hot for breakfast is the waffle maker. Internet doesnt work and if you want to stay more than 20 mins after the park closes you have to walk back or find another way because they will not come get you even with small children. Even on a budget we would should of spent the extra 30 bucks a night and stayed closer to the park....lots of nice selections there.MoreShow less</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded March 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2018</t>
+  </si>
+  <si>
+    <t>When you visit a town with a huge attraction such as Disney and attach the Disney to your name you might want to attach some of the same manners. The rooms were nice but the service needs some help, just how I saw other situations handled and then our own you could tell it was just the way management did things.  This is not a corporate hotel it's a personal owned with the name. Read the fine print and be careful. Don't ask for extra pillows for fear of being spoken to in a forien language.  The only thing hot for breakfast is the waffle maker. Internet doesnt work and if you want to stay more than 20 mins after the park closes you have to walk back or find another way because they will not come get you even with small children. Even on a budget we would should of spent the extra 30 bucks a night and stayed closer to the park....lots of nice selections there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r563723329-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>563723329</t>
+  </si>
+  <si>
+    <t>03/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r563238266-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>563238266</t>
+  </si>
+  <si>
+    <t>02/27/2018</t>
+  </si>
+  <si>
+    <t>Pleasantly surpised</t>
+  </si>
+  <si>
+    <t>I had another Hotel reservation fall through and needed a hotel at a reasonable price fast. To be honest, all I wanted was a clean bed and shower with in walking distance to Disneyland, I found one last opening on Hotels.com within my budget. When I booked it online it mentioned free parking, free continential breakfast and a shuttle service to Disneyland. When I got there, I was greeted with the shuttle service schedule and a smile. The rooms were comfortable, clean and bright. I loved that there was a microwave as well as a refridgerator. The shuttle was punctual and the driver friendly. My son and I enjoyed the spa and heated pool. The breakfast was good, but not anything to get excited about. I would have liked to see more menu choice and possibly a gluten free option. But for what I needed it for, the Days Inn &amp; Suites fit the bill perfectly. I would definitely stay there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded March 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2018</t>
+  </si>
+  <si>
+    <t>I had another Hotel reservation fall through and needed a hotel at a reasonable price fast. To be honest, all I wanted was a clean bed and shower with in walking distance to Disneyland, I found one last opening on Hotels.com within my budget. When I booked it online it mentioned free parking, free continential breakfast and a shuttle service to Disneyland. When I got there, I was greeted with the shuttle service schedule and a smile. The rooms were comfortable, clean and bright. I loved that there was a microwave as well as a refridgerator. The shuttle was punctual and the driver friendly. My son and I enjoyed the spa and heated pool. The breakfast was good, but not anything to get excited about. I would have liked to see more menu choice and possibly a gluten free option. But for what I needed it for, the Days Inn &amp; Suites fit the bill perfectly. I would definitely stay there again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r561992486-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>561992486</t>
+  </si>
+  <si>
+    <t>02/21/2018</t>
+  </si>
+  <si>
+    <t>Disneyland Trip Feb. 2018</t>
+  </si>
+  <si>
+    <t>I chose this Days Inn property solely for its proximity to the Disneyland Resort. While the convenience of walking to and from the parks every day was excellent, the staff was poorly trained and indifferent, and the property was showing its age. Check in was atrocious, the room was average, and the breakfast was non existent. However, the attitude of the front desk staff was by far the worst part of this stay. I am in front office management at a Four-Diamond international brand, and I would terminate every single one of your front desk agents for poor attitude, unprofessional appearance, and unfortunate indifference to the concerns of the guest. I will be paying the extra $200+ per night going forward to stay on-property with Disney because of this stay. Absolutely a bare-bones experience with far too many negatives to justify staying here going forward. Housekeeping deserves a medal for doing their jobs well and having to deal with the front desk at this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded February 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2018</t>
+  </si>
+  <si>
+    <t>I chose this Days Inn property solely for its proximity to the Disneyland Resort. While the convenience of walking to and from the parks every day was excellent, the staff was poorly trained and indifferent, and the property was showing its age. Check in was atrocious, the room was average, and the breakfast was non existent. However, the attitude of the front desk staff was by far the worst part of this stay. I am in front office management at a Four-Diamond international brand, and I would terminate every single one of your front desk agents for poor attitude, unprofessional appearance, and unfortunate indifference to the concerns of the guest. I will be paying the extra $200+ per night going forward to stay on-property with Disney because of this stay. Absolutely a bare-bones experience with far too many negatives to justify staying here going forward. Housekeeping deserves a medal for doing their jobs well and having to deal with the front desk at this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r561791219-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>561791219</t>
+  </si>
+  <si>
+    <t>02/20/2018</t>
+  </si>
+  <si>
+    <t>A good back up hotel</t>
+  </si>
+  <si>
+    <t>My husband and I come to Disneyland every year and stay at a hotel across from Disneyland park. Our normal hotel was booked, so we found this hotel as a substitute. I’ll list the pros and the cons and let you decide on if you’d like to stay there or not :)
+Pros:
+Clean and nicely decorated rooms. It looks like it has been updated recently. There is a fridge and a microwave, plus a limited continental breakfast. The beds are super comfy and there wasn’t anything that stuck out to me as unusual in the room. The hotel has a shuttle which is also in my cons list.
+Cons:
+The hotel is about a 15 minute walk over an overpass to the parks. If you’re anything like me, you won’t want to walk anymore at the end of a full day at the parks. One night, we were waiting for the shuttle to arrive at 11:35PM, it still wasn’t there by 11:50 and we had to call and ask why nobody was coming to get us. There were more people waiting than seats in the shuttle, so my husband and I just decided to get an Uber home. Last night, our key to the room stopped working. This was about at like 9:30, but there was only one worker in the office and it took about 30 minutes before we could get a replacement key for our room. 
+The...My husband and I come to Disneyland every year and stay at a hotel across from Disneyland park. Our normal hotel was booked, so we found this hotel as a substitute. I’ll list the pros and the cons and let you decide on if you’d like to stay there or not :)Pros:Clean and nicely decorated rooms. It looks like it has been updated recently. There is a fridge and a microwave, plus a limited continental breakfast. The beds are super comfy and there wasn’t anything that stuck out to me as unusual in the room. The hotel has a shuttle which is also in my cons list.Cons:The hotel is about a 15 minute walk over an overpass to the parks. If you’re anything like me, you won’t want to walk anymore at the end of a full day at the parks. One night, we were waiting for the shuttle to arrive at 11:35PM, it still wasn’t there by 11:50 and we had to call and ask why nobody was coming to get us. There were more people waiting than seats in the shuttle, so my husband and I just decided to get an Uber home. Last night, our key to the room stopped working. This was about at like 9:30, but there was only one worker in the office and it took about 30 minutes before we could get a replacement key for our room. The only other thing I disliked about this hotel, which isn’t really anyone’s fault is that uber drivers can’t find the hotel. Almost every driver we had got lost because GPS tell it to go to this super sketchy back alley. We eventually just started to tell each driver to ignore the directions and just have us tell them where to go. Overall, I think this was a nice hotel to stay at, but I think I’ll choose to stay at my usual hotel if I’m able to. MoreShow less</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded February 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2018</t>
+  </si>
+  <si>
+    <t>My husband and I come to Disneyland every year and stay at a hotel across from Disneyland park. Our normal hotel was booked, so we found this hotel as a substitute. I’ll list the pros and the cons and let you decide on if you’d like to stay there or not :)
+Pros:
+Clean and nicely decorated rooms. It looks like it has been updated recently. There is a fridge and a microwave, plus a limited continental breakfast. The beds are super comfy and there wasn’t anything that stuck out to me as unusual in the room. The hotel has a shuttle which is also in my cons list.
+Cons:
+The hotel is about a 15 minute walk over an overpass to the parks. If you’re anything like me, you won’t want to walk anymore at the end of a full day at the parks. One night, we were waiting for the shuttle to arrive at 11:35PM, it still wasn’t there by 11:50 and we had to call and ask why nobody was coming to get us. There were more people waiting than seats in the shuttle, so my husband and I just decided to get an Uber home. Last night, our key to the room stopped working. This was about at like 9:30, but there was only one worker in the office and it took about 30 minutes before we could get a replacement key for our room. 
+The...My husband and I come to Disneyland every year and stay at a hotel across from Disneyland park. Our normal hotel was booked, so we found this hotel as a substitute. I’ll list the pros and the cons and let you decide on if you’d like to stay there or not :)Pros:Clean and nicely decorated rooms. It looks like it has been updated recently. There is a fridge and a microwave, plus a limited continental breakfast. The beds are super comfy and there wasn’t anything that stuck out to me as unusual in the room. The hotel has a shuttle which is also in my cons list.Cons:The hotel is about a 15 minute walk over an overpass to the parks. If you’re anything like me, you won’t want to walk anymore at the end of a full day at the parks. One night, we were waiting for the shuttle to arrive at 11:35PM, it still wasn’t there by 11:50 and we had to call and ask why nobody was coming to get us. There were more people waiting than seats in the shuttle, so my husband and I just decided to get an Uber home. Last night, our key to the room stopped working. This was about at like 9:30, but there was only one worker in the office and it took about 30 minutes before we could get a replacement key for our room. The only other thing I disliked about this hotel, which isn’t really anyone’s fault is that uber drivers can’t find the hotel. Almost every driver we had got lost because GPS tell it to go to this super sketchy back alley. We eventually just started to tell each driver to ignore the directions and just have us tell them where to go. Overall, I think this was a nice hotel to stay at, but I think I’ll choose to stay at my usual hotel if I’m able to. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r561072014-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>561072014</t>
+  </si>
+  <si>
+    <t>02/17/2018</t>
+  </si>
+  <si>
+    <t>Rooms were ok, not great; front desk clerk was not.</t>
+  </si>
+  <si>
+    <t>The rooms were fairly clean except for the small sofa in the room which was filthy and stained, only two of the electrical plugs worked properly; however, the front desk clerk upon check-in was lacking everything that good customer service should be. I had asked for a toddler's bed (it was an option during the online booking) and he was argumentative, same with my request for a downstairs room due to bad knees (I had also called in advance to make this request). A good star, the lady in the continental breakfast area was polite, professional and a sweetheart, very attentive to all guests needs. MoreShow less</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded February 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2018</t>
+  </si>
+  <si>
+    <t>The rooms were fairly clean except for the small sofa in the room which was filthy and stained, only two of the electrical plugs worked properly; however, the front desk clerk upon check-in was lacking everything that good customer service should be. I had asked for a toddler's bed (it was an option during the online booking) and he was argumentative, same with my request for a downstairs room due to bad knees (I had also called in advance to make this request). A good star, the lady in the continental breakfast area was polite, professional and a sweetheart, very attentive to all guests needs. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r559670784-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>559670784</t>
+  </si>
+  <si>
+    <t>02/10/2018</t>
+  </si>
+  <si>
+    <t>The hotel was very nice, quiet and clean, breakfast was ok, this was the second time we have used this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded February 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2018</t>
+  </si>
+  <si>
+    <t>The hotel was very nice, quiet and clean, breakfast was ok, this was the second time we have used this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r559271725-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>559271725</t>
+  </si>
+  <si>
+    <t>02/08/2018</t>
+  </si>
+  <si>
+    <t>Nice clean rooms with pull out couch, nice shuttle to park but no wifi, ice cold pool. Breakfast very limited.</t>
+  </si>
+  <si>
+    <t>The rooms were very clean and quiet and ours had 2 queens and a fold out single couch, but it's short so better for teens or smaller humans.  Shuttle was very convenient and if you missed it the walk wasn't too bad. We stayed 6 nights and complained about Wifi multiple times but it didn't work at all for our stay.  Pool was ice cold yet it had been above 90 outside for more than a week, would be nice if they heated it.  Breakfast is very poor, bread, cereal, a staff member making waffles but they were raw.  Only banana's for fruit and 2 or 3 yogurts in the fridge every morning (we were a family of 4 so never enough for all of us) so we started eating elsewhere after a couple of days.  If you want a clean hotel that is reasonable within walking distance of park albeit a little bit of a hike, I would definitely recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms were very clean and quiet and ours had 2 queens and a fold out single couch, but it's short so better for teens or smaller humans.  Shuttle was very convenient and if you missed it the walk wasn't too bad. We stayed 6 nights and complained about Wifi multiple times but it didn't work at all for our stay.  Pool was ice cold yet it had been above 90 outside for more than a week, would be nice if they heated it.  Breakfast is very poor, bread, cereal, a staff member making waffles but they were raw.  Only banana's for fruit and 2 or 3 yogurts in the fridge every morning (we were a family of 4 so never enough for all of us) so we started eating elsewhere after a couple of days.  If you want a clean hotel that is reasonable within walking distance of park albeit a little bit of a hike, I would definitely recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r558478195-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>558478195</t>
+  </si>
+  <si>
+    <t>02/04/2018</t>
+  </si>
+  <si>
+    <t>Convenient stay!</t>
+  </si>
+  <si>
+    <t>The place was very convenient for my family's stay as it is less than a mile from Disneyland Resort and other Adventure Parks. It was as such just a walking distance to the parks. There are also lots of restaurants around, including Mac Donalds. Unfortunately there was renovation when were were at the Hotel in December, and we were not warned of this. The couch in the room was dirty and had to request that our bedding be changed as it was not clean. The lady at the breakfast area and some of the front desk staff members were super nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded February 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2018</t>
+  </si>
+  <si>
+    <t>The place was very convenient for my family's stay as it is less than a mile from Disneyland Resort and other Adventure Parks. It was as such just a walking distance to the parks. There are also lots of restaurants around, including Mac Donalds. Unfortunately there was renovation when were were at the Hotel in December, and we were not warned of this. The couch in the room was dirty and had to request that our bedding be changed as it was not clean. The lady at the breakfast area and some of the front desk staff members were super nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r557427768-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>557427768</t>
+  </si>
+  <si>
+    <t>01/30/2018</t>
+  </si>
+  <si>
+    <t>OK for the price but a few issues</t>
+  </si>
+  <si>
+    <t>I needed a last minute stay by Disneyland and didnt want to pay an astronomical price.you know what they say: you get what you pay for. Its okay for the price. At least the room was clean. What was weird is that they dont have a shower or tub, just a hole in the floor and the toilet is next to it. So if someone took a shower and you need to use a restroom, you literally have to sit ankles dip in water. Also, there are no door to separate a closet and restroom so if someone using a restroom, you cant get into the closet. Very weird set up. Air conditioner was bad. It either super cold or super hot.Lastly, the breakfast was by far the worst I ever got in a similar hotel. Just some bread, cereal and cold milk. It was okay to sleep for one night. At least its close to Disneyland. Not walking distance but they have a shuttle.MoreShow less</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded February 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2018</t>
+  </si>
+  <si>
+    <t>I needed a last minute stay by Disneyland and didnt want to pay an astronomical price.you know what they say: you get what you pay for. Its okay for the price. At least the room was clean. What was weird is that they dont have a shower or tub, just a hole in the floor and the toilet is next to it. So if someone took a shower and you need to use a restroom, you literally have to sit ankles dip in water. Also, there are no door to separate a closet and restroom so if someone using a restroom, you cant get into the closet. Very weird set up. Air conditioner was bad. It either super cold or super hot.Lastly, the breakfast was by far the worst I ever got in a similar hotel. Just some bread, cereal and cold milk. It was okay to sleep for one night. At least its close to Disneyland. Not walking distance but they have a shuttle.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r557390402-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>557390402</t>
+  </si>
+  <si>
+    <t>Bad Shuttle Driver!</t>
+  </si>
+  <si>
+    <t>My overall experience with my stay was fine. The only problem I experienced was using their shuttle. The early driver was exceptionally rude and nasty to all the riders, including the children who were on their way to Disneyland for a fun day. He also ran red lights and drove aggressively with us on the shuttle bus. He had a real chip on his shoulder that he took out on everybody. When I tried to telephone back to the hotel to let the manager know the person at the desk would not let me speak to the manager because I would not give her my room number (which I chose not to give since I did not want to receive any other problems with the hotel staff in retaliation) with her being so defensive of the driver. She refused to let me speak to the manager so I have no idea if he ever received my message. The incidents were with the morning shuttle driver on January 26 &amp; 27th. The evening driver was very pleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>My overall experience with my stay was fine. The only problem I experienced was using their shuttle. The early driver was exceptionally rude and nasty to all the riders, including the children who were on their way to Disneyland for a fun day. He also ran red lights and drove aggressively with us on the shuttle bus. He had a real chip on his shoulder that he took out on everybody. When I tried to telephone back to the hotel to let the manager know the person at the desk would not let me speak to the manager because I would not give her my room number (which I chose not to give since I did not want to receive any other problems with the hotel staff in retaliation) with her being so defensive of the driver. She refused to let me speak to the manager so I have no idea if he ever received my message. The incidents were with the morning shuttle driver on January 26 &amp; 27th. The evening driver was very pleasant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r557365170-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>557365170</t>
+  </si>
+  <si>
+    <t>Simple getaway</t>
+  </si>
+  <si>
+    <t>I went to this hotel back in 2015 and i know they have remodeled since then. The hotel is clean and very well presented and makes it an easy location for the spots around Anaheim. I would definitely recommend this hotel MoreShow less</t>
+  </si>
+  <si>
+    <t>I went to this hotel back in 2015 and i know they have remodeled since then. The hotel is clean and very well presented and makes it an easy location for the spots around Anaheim. I would definitely recommend this hotel More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r555537660-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>555537660</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>USB connections did not work in the rooms. Stains on the...</t>
+  </si>
+  <si>
+    <t>USB connections did not work in the rooms. Stains on the sofa, and they only allow one vehicle to park on the property. Shuttle times were not convenient. Had to us lift to get back after park closed. MoreShow less</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded January 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2018</t>
+  </si>
+  <si>
+    <t>USB connections did not work in the rooms. Stains on the sofa, and they only allow one vehicle to park on the property. Shuttle times were not convenient. Had to us lift to get back after park closed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r555188160-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>555188160</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Close to Disney</t>
+  </si>
+  <si>
+    <t>Pro: Half mile to Disney Shuttle nice but full oftenRooms CleanStaff friendlyBreakfast niceCons: Motel not hotelNoisy all around Parking and other roomsMoreShow less</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded January 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2018</t>
+  </si>
+  <si>
+    <t>Pro: Half mile to Disney Shuttle nice but full oftenRooms CleanStaff friendlyBreakfast niceCons: Motel not hotelNoisy all around Parking and other roomsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r554667752-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>554667752</t>
+  </si>
+  <si>
+    <t>01/18/2018</t>
+  </si>
+  <si>
+    <t>Great short stay!</t>
+  </si>
+  <si>
+    <t>Fun stay! Everyone that work there was very friendly and the rooms were very clean. The only hiccup I had was that the internet WiFi was going in and out constantly, but I did not report that problemMoreShow less</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded January 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2018</t>
+  </si>
+  <si>
+    <t>Fun stay! Everyone that work there was very friendly and the rooms were very clean. The only hiccup I had was that the internet WiFi was going in and out constantly, but I did not report that problemMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r554261289-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>554261289</t>
+  </si>
+  <si>
+    <t>01/16/2018</t>
+  </si>
+  <si>
+    <t>Horrible!! Want our money back!!!</t>
+  </si>
+  <si>
+    <t>I have been planning this trip for a few months for an annaversary surprise. We arrived on Jan. 11th, 2018 and we were supposed to stay until Jan. 14th, 2018. When we arrived, the man at the counter was very rude and seemed to not be focused on us at all. We asked questions and we talked over us and completely dismissed us. We went up to the hotel and slept horribly on the beds and when we woke up our second night, I noticed something crawling on me. I turned on the lights and there was a huge line of ants coming out of the wall from the closet (We were on the second floor). They found our food that we brought for the trip and we had to throw away most of it! We called the front desk and the person at the desk told us that they could not do anything untill the manager came at 7 (which was 40 minutes later) we had to wait for them to call us while ants were everywhere. We got the call back and at first they wanted to only send the maintenance man up when he clocked in later that day and leave us in the room. We told them no that was not okay. And after we told them that we wanted a different room they made us wait almost an hour to find one and move into...I have been planning this trip for a few months for an annaversary surprise. We arrived on Jan. 11th, 2018 and we were supposed to stay until Jan. 14th, 2018. When we arrived, the man at the counter was very rude and seemed to not be focused on us at all. We asked questions and we talked over us and completely dismissed us. We went up to the hotel and slept horribly on the beds and when we woke up our second night, I noticed something crawling on me. I turned on the lights and there was a huge line of ants coming out of the wall from the closet (We were on the second floor). They found our food that we brought for the trip and we had to throw away most of it! We called the front desk and the person at the desk told us that they could not do anything untill the manager came at 7 (which was 40 minutes later) we had to wait for them to call us while ants were everywhere. We got the call back and at first they wanted to only send the maintenance man up when he clocked in later that day and leave us in the room. We told them no that was not okay. And after we told them that we wanted a different room they made us wait almost an hour to find one and move into one. They were very rude about the entire thing. We were quite upset on our annaversary. MoreShow less</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded January 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2018</t>
+  </si>
+  <si>
+    <t>I have been planning this trip for a few months for an annaversary surprise. We arrived on Jan. 11th, 2018 and we were supposed to stay until Jan. 14th, 2018. When we arrived, the man at the counter was very rude and seemed to not be focused on us at all. We asked questions and we talked over us and completely dismissed us. We went up to the hotel and slept horribly on the beds and when we woke up our second night, I noticed something crawling on me. I turned on the lights and there was a huge line of ants coming out of the wall from the closet (We were on the second floor). They found our food that we brought for the trip and we had to throw away most of it! We called the front desk and the person at the desk told us that they could not do anything untill the manager came at 7 (which was 40 minutes later) we had to wait for them to call us while ants were everywhere. We got the call back and at first they wanted to only send the maintenance man up when he clocked in later that day and leave us in the room. We told them no that was not okay. And after we told them that we wanted a different room they made us wait almost an hour to find one and move into...I have been planning this trip for a few months for an annaversary surprise. We arrived on Jan. 11th, 2018 and we were supposed to stay until Jan. 14th, 2018. When we arrived, the man at the counter was very rude and seemed to not be focused on us at all. We asked questions and we talked over us and completely dismissed us. We went up to the hotel and slept horribly on the beds and when we woke up our second night, I noticed something crawling on me. I turned on the lights and there was a huge line of ants coming out of the wall from the closet (We were on the second floor). They found our food that we brought for the trip and we had to throw away most of it! We called the front desk and the person at the desk told us that they could not do anything untill the manager came at 7 (which was 40 minutes later) we had to wait for them to call us while ants were everywhere. We got the call back and at first they wanted to only send the maintenance man up when he clocked in later that day and leave us in the room. We told them no that was not okay. And after we told them that we wanted a different room they made us wait almost an hour to find one and move into one. They were very rude about the entire thing. We were quite upset on our annaversary. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r554224781-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>554224781</t>
+  </si>
+  <si>
+    <t>This is a family location, lots of kids running up and...</t>
+  </si>
+  <si>
+    <t>This is a family location, lots of kids running up and down the stairs, screaming. Walls are not sound proof. Two receptionists, but only one worked.MoreShow less</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded January 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2018</t>
+  </si>
+  <si>
+    <t>This is a family location, lots of kids running up and down the stairs, screaming. Walls are not sound proof. Two receptionists, but only one worked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r553981136-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>553981136</t>
+  </si>
+  <si>
+    <t>01/15/2018</t>
+  </si>
+  <si>
+    <t>Meets your needs</t>
+  </si>
+  <si>
+    <t>We stayed in January of 2018 for a Disneyland family vacation. The staff is courteous and helpful and the property is in decent shape with signs of renovation throughout. The breakfast is adequate, cold cereal, waffles, juice and coffee. The shuttle is helpful but packed in the morning and the evening and could run more often to be more convenient. MoreShow less</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded January 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2018</t>
+  </si>
+  <si>
+    <t>We stayed in January of 2018 for a Disneyland family vacation. The staff is courteous and helpful and the property is in decent shape with signs of renovation throughout. The breakfast is adequate, cold cereal, waffles, juice and coffee. The shuttle is helpful but packed in the morning and the evening and could run more often to be more convenient. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r553222408-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>553222408</t>
+  </si>
+  <si>
+    <t>01/11/2018</t>
+  </si>
+  <si>
+    <t>clean rooms</t>
+  </si>
+  <si>
+    <t>We planned a last minute trip to Disney Land and there weren't a lot of hotels that were within close walking distance available. This property offered a fairly close location, free wi-fi, free parking and breakfast included which were all things I was looking for. The room was clean and a little more spacious than some hotel rooms. The beds were comfortable. My only complaint would be that they claim to have a free shuttle to Disney Land but unfortunately it doesn't run very often. The first one leaves at 7:40am from the hotel and that is way too late. If you want to be in the park by 8:00 am you need to start earlier than that to get through security and then the line to the park. The shuttle needs to start earlier and run more frequently.MoreShow less</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded January 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2018</t>
+  </si>
+  <si>
+    <t>We planned a last minute trip to Disney Land and there weren't a lot of hotels that were within close walking distance available. This property offered a fairly close location, free wi-fi, free parking and breakfast included which were all things I was looking for. The room was clean and a little more spacious than some hotel rooms. The beds were comfortable. My only complaint would be that they claim to have a free shuttle to Disney Land but unfortunately it doesn't run very often. The first one leaves at 7:40am from the hotel and that is way too late. If you want to be in the park by 8:00 am you need to start earlier than that to get through security and then the line to the park. The shuttle needs to start earlier and run more frequently.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r553217060-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>553217060</t>
+  </si>
+  <si>
+    <t>Uncomfortable beds</t>
+  </si>
+  <si>
+    <t>The room was clean and nice however the beds were very uncomfortable. The pull out sofa was so bad my children had to sleep with my husband and I had to sleep on the sofa bed and it was awful. My husband was up several times because the King bed was so hard and uncomfortable. I was very disappointed after a long day at Disneyland for such a horrible sleep. MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was clean and nice however the beds were very uncomfortable. The pull out sofa was so bad my children had to sleep with my husband and I had to sleep on the sofa bed and it was awful. My husband was up several times because the King bed was so hard and uncomfortable. I was very disappointed after a long day at Disneyland for such a horrible sleep. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r553192398-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>553192398</t>
+  </si>
+  <si>
+    <t>PERFECT PLACE TO STAY FOR DISNEYLAND</t>
+  </si>
+  <si>
+    <t>We were leary booking this hotel since i usually only stay at the embassy, but they were a welcomed surprise! the staff is very friendly and they offer a free shuttle to Disneyland. the only down side was the free breakfast, it is just waffles, coffee, juice and toast, but hey the price here is great and it is clean so that is okay. oh also the rooms have a Disney picture in them which really ties in on your experience to Disneyland!MoreShow less</t>
+  </si>
+  <si>
+    <t>We were leary booking this hotel since i usually only stay at the embassy, but they were a welcomed surprise! the staff is very friendly and they offer a free shuttle to Disneyland. the only down side was the free breakfast, it is just waffles, coffee, juice and toast, but hey the price here is great and it is clean so that is okay. oh also the rooms have a Disney picture in them which really ties in on your experience to Disneyland!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r551603559-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>551603559</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t>Good to just sleep.....</t>
+  </si>
+  <si>
+    <t>We used the room just to sleep the hotel was ok for just that. If you're looking to relax, go somewhere else. The windows and doors are paper thin you can literally hear a pin drop outside from the inside. They need to invest in some sort of "sound proof" for the doors and windows. Thankfully, we were on the second floor (top floor), so we don't know what the noise upstairs would be like. The breakfast, REALLY?. Cereal and toast.....that's all you get, why even bother? there is not variety. Finally the room itself was clean BUT the job they did in "renovating" was very sloppy. The caulking is all over the place, the shower faucet was pulled out from the wall, there were rust stains all over the bathtub and we got a ripped shower curtain so whenever we showered the water came onto the bathroom floor. Overall - I've been to better places......The staff - they were all very friendly but didn't know much about the area or our booking, we had to call an 800 number to change the reservation AND to figure out my WiFi issue, they couldn't help me much, they're just there to have a body in the office I guess. MoreShow less</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded January 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 6, 2018</t>
+  </si>
+  <si>
+    <t>We used the room just to sleep the hotel was ok for just that. If you're looking to relax, go somewhere else. The windows and doors are paper thin you can literally hear a pin drop outside from the inside. They need to invest in some sort of "sound proof" for the doors and windows. Thankfully, we were on the second floor (top floor), so we don't know what the noise upstairs would be like. The breakfast, REALLY?. Cereal and toast.....that's all you get, why even bother? there is not variety. Finally the room itself was clean BUT the job they did in "renovating" was very sloppy. The caulking is all over the place, the shower faucet was pulled out from the wall, there were rust stains all over the bathtub and we got a ripped shower curtain so whenever we showered the water came onto the bathroom floor. Overall - I've been to better places......The staff - they were all very friendly but didn't know much about the area or our booking, we had to call an 800 number to change the reservation AND to figure out my WiFi issue, they couldn't help me much, they're just there to have a body in the office I guess. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r551601075-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>551601075</t>
+  </si>
+  <si>
+    <t>Keeping in mind that my expectations were based on what I...</t>
+  </si>
+  <si>
+    <t>Keeping in mind that my expectations were based on what I feel a hotel at the level an Inn should be versus if I were staying at a hotel at the level like the Marriott, my overall experience was above satisfactory. With that in mind, there were two things that felt if possible the hotel could improve in order to better service their customers;1st- Shuttle Service  Frequency of the times to for from Disneyland, based on the more demanding times of day. Also, the ability for customers to request a ride if their departure time falls within the time were there is a big gap (ex. between 1:30pm - 4:30pm). Larger shuttle vans in order accommodate all guest. For an example one morning despite me being the third person in line to depart, upon actually departing time because the first person who had been standing there solo family of 8 came out I was forced to wait...MoreShow less</t>
+  </si>
+  <si>
+    <t>Keeping in mind that my expectations were based on what I feel a hotel at the level an Inn should be versus if I were staying at a hotel at the level like the Marriott, my overall experience was above satisfactory. With that in mind, there were two things that felt if possible the hotel could improve in order to better service their customers;1st- Shuttle Service  Frequency of the times to for from Disneyland, based on the more demanding times of day. Also, the ability for customers to request a ride if their departure time falls within the time were there is a big gap (ex. between 1:30pm - 4:30pm). Larger shuttle vans in order accommodate all guest. For an example one morning despite me being the third person in line to depart, upon actually departing time because the first person who had been standing there solo family of 8 came out I was forced to wait...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r551538859-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>551538859</t>
+  </si>
+  <si>
+    <t>The hotel is near from the parks, you can walk. The room...</t>
+  </si>
+  <si>
+    <t>The hotel is near from the parks, you can walk. The room was really clean, bathroom as well. Pool was perfect for us. Really clean. I really recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is near from the parks, you can walk. The room was really clean, bathroom as well. Pool was perfect for us. Really clean. I really recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r550922306-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>550922306</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>This hotel was a good value. Room was clean and spacious. Comfortable beds! Breakfast wasn't much. It definitely needs to run more shuttles to Disney. Wait times were awful for the limited seating of the shuttle.MoreShow less</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded January 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2018</t>
+  </si>
+  <si>
+    <t>This hotel was a good value. Room was clean and spacious. Comfortable beds! Breakfast wasn't much. It definitely needs to run more shuttles to Disney. Wait times were awful for the limited seating of the shuttle.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r550235322-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>550235322</t>
+  </si>
+  <si>
+    <t>12/30/2017</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>Rooms where clean free shuttle was a plus you can see the fire works from Disney was a nice surprise staff was friendly I don’t agree with smoking right next to the entrance I would stay again if I was to return to the areaMoreShow less</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Rooms where clean free shuttle was a plus you can see the fire works from Disney was a nice surprise staff was friendly I don’t agree with smoking right next to the entrance I would stay again if I was to return to the areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r550107001-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>550107001</t>
+  </si>
+  <si>
+    <t>12/29/2017</t>
+  </si>
+  <si>
+    <t>Location was great and they offer free shuttle to and from Disneyland. Rooms were decent. the bathroom and vanity could use some love and updating. Breakfast is nothing fancy - waffles and Cereal was pretty much the most of it. Beds were decent.MoreShow less</t>
+  </si>
+  <si>
+    <t>Location was great and they offer free shuttle to and from Disneyland. Rooms were decent. the bathroom and vanity could use some love and updating. Breakfast is nothing fancy - waffles and Cereal was pretty much the most of it. Beds were decent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r548688988-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>548688988</t>
+  </si>
+  <si>
+    <t>12/22/2017</t>
+  </si>
+  <si>
+    <t>Good stay, especially for the price</t>
+  </si>
+  <si>
+    <t>We had a good stay at the Days Inn. It was close to Disneyland and the shuttle they offered was helpful and right on time. Breakfast was good. Basic breakfast of toast, yogurt, waffles, cereal, coffee and juice. The staff was nice. We checked in with Sonny and she was very nice and helpful. Only complaint would be the cost of a late check out. Check out is at 11am and our flight wasn’t until 7:30pm so we inquired about paying a fee to check out a little later. The fee to extend the check out to 3pm is $75 which is a little high considering that’s more than half the cost for one whole night so we just check out on time and found our own entertainment until our flight home. I would also recommend more tables during breakfast. One morning we were waiting for about 15 minutes for a table, then eventually left and at breakfast elsewhere but other than those two minor issues, we were pleased with out stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded December 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 24, 2017</t>
+  </si>
+  <si>
+    <t>We had a good stay at the Days Inn. It was close to Disneyland and the shuttle they offered was helpful and right on time. Breakfast was good. Basic breakfast of toast, yogurt, waffles, cereal, coffee and juice. The staff was nice. We checked in with Sonny and she was very nice and helpful. Only complaint would be the cost of a late check out. Check out is at 11am and our flight wasn’t until 7:30pm so we inquired about paying a fee to check out a little later. The fee to extend the check out to 3pm is $75 which is a little high considering that’s more than half the cost for one whole night so we just check out on time and found our own entertainment until our flight home. I would also recommend more tables during breakfast. One morning we were waiting for about 15 minutes for a table, then eventually left and at breakfast elsewhere but other than those two minor issues, we were pleased with out stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r547209201-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>547209201</t>
+  </si>
+  <si>
+    <t>12/14/2017</t>
+  </si>
+  <si>
+    <t>Not Great</t>
+  </si>
+  <si>
+    <t>Were do I start, 1st off a mask was found in a clean bed. 2nd of the blow dryer went out and no effort was made to get it replaced. Could not access the WiFi, not even through the help of there WiFi help line. They ran out of bread for there continental breakfast. Also there transportation times back and forth from the hotel to Disneyland were horrible, they offered nothing between 5:30 and 8:30.MoreShow less</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded December 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2017</t>
+  </si>
+  <si>
+    <t>Were do I start, 1st off a mask was found in a clean bed. 2nd of the blow dryer went out and no effort was made to get it replaced. Could not access the WiFi, not even through the help of there WiFi help line. They ran out of bread for there continental breakfast. Also there transportation times back and forth from the hotel to Disneyland were horrible, they offered nothing between 5:30 and 8:30.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r547114479-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>547114479</t>
+  </si>
+  <si>
+    <t>12/13/2017</t>
+  </si>
+  <si>
+    <t>Will definitely stay here again</t>
+  </si>
+  <si>
+    <t>Very clean, very comfortable. Free shuttle to Disneyland was a plus. We had a large group and the manager had the shuttle make a special trip to Downtown disney district for us. MoreShow less</t>
+  </si>
+  <si>
+    <t>Very clean, very comfortable. Free shuttle to Disneyland was a plus. We had a large group and the manager had the shuttle make a special trip to Downtown disney district for us. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r543717939-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>543717939</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t>Don’t expect much</t>
+  </si>
+  <si>
+    <t>Hotel is very loud, not very clean and doesn’t feel welcoming. Location is ok tho. I wouldn’t stay again. Breakfast has 0 protein, just unhealthy carbs. Coffee is ok tho. Staff is one of the better features too.MoreShow less</t>
+  </si>
+  <si>
+    <t>Eugenia C, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Anaheim at Disneyland Park, responded to this reviewResponded November 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2017</t>
+  </si>
+  <si>
+    <t>Hotel is very loud, not very clean and doesn’t feel welcoming. Location is ok tho. I wouldn’t stay again. Breakfast has 0 protein, just unhealthy carbs. Coffee is ok tho. Staff is one of the better features too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r542674655-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>542674655</t>
+  </si>
+  <si>
+    <t>11/22/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r542109315-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>542109315</t>
+  </si>
+  <si>
+    <t>11/19/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r541407926-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>541407926</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r540037209-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>540037209</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r539867179-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>539867179</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1783,3588 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>60</v>
+      </c>
+      <c r="X4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>91</v>
+      </c>
+      <c r="X7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" t="s">
+        <v>116</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>117</v>
+      </c>
+      <c r="X10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>115</v>
+      </c>
+      <c r="O11" t="s">
+        <v>125</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>126</v>
+      </c>
+      <c r="X11" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" t="s">
+        <v>125</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>134</v>
+      </c>
+      <c r="X12" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>99</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>134</v>
+      </c>
+      <c r="X13" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>115</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>147</v>
+      </c>
+      <c r="X14" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>152</v>
+      </c>
+      <c r="L15" t="s">
+        <v>153</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>115</v>
+      </c>
+      <c r="O15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>147</v>
+      </c>
+      <c r="X15" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" t="s">
+        <v>158</v>
+      </c>
+      <c r="L16" t="s">
+        <v>159</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>115</v>
+      </c>
+      <c r="O16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>160</v>
+      </c>
+      <c r="X16" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17" t="s">
+        <v>167</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>115</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>168</v>
+      </c>
+      <c r="X17" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>172</v>
+      </c>
+      <c r="J18" t="s">
+        <v>173</v>
+      </c>
+      <c r="K18" t="s">
+        <v>174</v>
+      </c>
+      <c r="L18" t="s">
+        <v>175</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>115</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>176</v>
+      </c>
+      <c r="X18" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>180</v>
+      </c>
+      <c r="J19" t="s">
+        <v>181</v>
+      </c>
+      <c r="K19" t="s">
+        <v>182</v>
+      </c>
+      <c r="L19" t="s">
+        <v>183</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>184</v>
+      </c>
+      <c r="O19" t="s">
+        <v>185</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>186</v>
+      </c>
+      <c r="X19" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>190</v>
+      </c>
+      <c r="J20" t="s">
+        <v>191</v>
+      </c>
+      <c r="K20" t="s">
+        <v>192</v>
+      </c>
+      <c r="L20" t="s">
+        <v>193</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>184</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>194</v>
+      </c>
+      <c r="X20" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>198</v>
+      </c>
+      <c r="J21" t="s">
+        <v>199</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s">
+        <v>106</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>184</v>
+      </c>
+      <c r="O21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>194</v>
+      </c>
+      <c r="X21" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>201</v>
+      </c>
+      <c r="J22" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" t="s">
+        <v>204</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>184</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>205</v>
+      </c>
+      <c r="X22" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>209</v>
+      </c>
+      <c r="J23" t="s">
+        <v>210</v>
+      </c>
+      <c r="K23" t="s">
+        <v>211</v>
+      </c>
+      <c r="L23" t="s">
+        <v>212</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>184</v>
+      </c>
+      <c r="O23" t="s">
+        <v>125</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>213</v>
+      </c>
+      <c r="X23" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>217</v>
+      </c>
+      <c r="J24" t="s">
+        <v>218</v>
+      </c>
+      <c r="K24" t="s">
+        <v>219</v>
+      </c>
+      <c r="L24" t="s">
+        <v>220</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>184</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>221</v>
+      </c>
+      <c r="X24" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>225</v>
+      </c>
+      <c r="J25" t="s">
+        <v>226</v>
+      </c>
+      <c r="K25" t="s">
+        <v>227</v>
+      </c>
+      <c r="L25" t="s">
+        <v>228</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>184</v>
+      </c>
+      <c r="O25" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>229</v>
+      </c>
+      <c r="X25" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>232</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J26" t="s">
+        <v>234</v>
+      </c>
+      <c r="K26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" t="s">
+        <v>235</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>236</v>
+      </c>
+      <c r="O26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>237</v>
+      </c>
+      <c r="X26" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>240</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>241</v>
+      </c>
+      <c r="J27" t="s">
+        <v>242</v>
+      </c>
+      <c r="K27" t="s">
+        <v>243</v>
+      </c>
+      <c r="L27" t="s">
+        <v>244</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>236</v>
+      </c>
+      <c r="O27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>237</v>
+      </c>
+      <c r="X27" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>246</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>247</v>
+      </c>
+      <c r="J28" t="s">
+        <v>248</v>
+      </c>
+      <c r="K28" t="s">
+        <v>249</v>
+      </c>
+      <c r="L28" t="s">
+        <v>250</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>251</v>
+      </c>
+      <c r="O28" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>252</v>
+      </c>
+      <c r="X28" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>255</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>256</v>
+      </c>
+      <c r="J29" t="s">
+        <v>257</v>
+      </c>
+      <c r="K29" t="s">
+        <v>258</v>
+      </c>
+      <c r="L29" t="s">
+        <v>259</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>236</v>
+      </c>
+      <c r="O29" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>260</v>
+      </c>
+      <c r="X29" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>263</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>264</v>
+      </c>
+      <c r="J30" t="s">
+        <v>257</v>
+      </c>
+      <c r="K30" t="s">
+        <v>265</v>
+      </c>
+      <c r="L30" t="s">
+        <v>266</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>236</v>
+      </c>
+      <c r="O30" t="s">
+        <v>116</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>260</v>
+      </c>
+      <c r="X30" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>269</v>
+      </c>
+      <c r="J31" t="s">
+        <v>257</v>
+      </c>
+      <c r="K31" t="s">
+        <v>270</v>
+      </c>
+      <c r="L31" t="s">
+        <v>271</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>236</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>260</v>
+      </c>
+      <c r="X31" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>273</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>274</v>
+      </c>
+      <c r="J32" t="s">
+        <v>275</v>
+      </c>
+      <c r="K32" t="s">
+        <v>276</v>
+      </c>
+      <c r="L32" t="s">
+        <v>277</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>236</v>
+      </c>
+      <c r="O32" t="s">
+        <v>59</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>278</v>
+      </c>
+      <c r="X32" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>281</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>282</v>
+      </c>
+      <c r="J33" t="s">
+        <v>283</v>
+      </c>
+      <c r="K33" t="s">
+        <v>284</v>
+      </c>
+      <c r="L33" t="s">
+        <v>285</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>236</v>
+      </c>
+      <c r="O33" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>286</v>
+      </c>
+      <c r="X33" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>289</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>290</v>
+      </c>
+      <c r="J34" t="s">
+        <v>291</v>
+      </c>
+      <c r="K34" t="s">
+        <v>292</v>
+      </c>
+      <c r="L34" t="s">
+        <v>293</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>236</v>
+      </c>
+      <c r="O34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>294</v>
+      </c>
+      <c r="X34" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>297</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>298</v>
+      </c>
+      <c r="J35" t="s">
+        <v>299</v>
+      </c>
+      <c r="K35" t="s">
+        <v>300</v>
+      </c>
+      <c r="L35" t="s">
+        <v>301</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>236</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>302</v>
+      </c>
+      <c r="X35" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>305</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>306</v>
+      </c>
+      <c r="J36" t="s">
+        <v>299</v>
+      </c>
+      <c r="K36" t="s">
+        <v>307</v>
+      </c>
+      <c r="L36" t="s">
+        <v>308</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>236</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>309</v>
+      </c>
+      <c r="X36" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>312</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>313</v>
+      </c>
+      <c r="J37" t="s">
+        <v>314</v>
+      </c>
+      <c r="K37" t="s">
+        <v>315</v>
+      </c>
+      <c r="L37" t="s">
+        <v>316</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>236</v>
+      </c>
+      <c r="O37" t="s">
+        <v>59</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>317</v>
+      </c>
+      <c r="X37" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>320</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>321</v>
+      </c>
+      <c r="J38" t="s">
+        <v>322</v>
+      </c>
+      <c r="K38" t="s">
+        <v>323</v>
+      </c>
+      <c r="L38" t="s">
+        <v>324</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>236</v>
+      </c>
+      <c r="O38" t="s">
+        <v>59</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>325</v>
+      </c>
+      <c r="X38" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>329</v>
+      </c>
+      <c r="J39" t="s">
+        <v>322</v>
+      </c>
+      <c r="K39" t="s">
+        <v>330</v>
+      </c>
+      <c r="L39" t="s">
+        <v>331</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>236</v>
+      </c>
+      <c r="O39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>325</v>
+      </c>
+      <c r="X39" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>333</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>334</v>
+      </c>
+      <c r="J40" t="s">
+        <v>322</v>
+      </c>
+      <c r="K40" t="s">
+        <v>335</v>
+      </c>
+      <c r="L40" t="s">
+        <v>336</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>236</v>
+      </c>
+      <c r="O40" t="s">
+        <v>59</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>325</v>
+      </c>
+      <c r="X40" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>338</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>339</v>
+      </c>
+      <c r="J41" t="s">
+        <v>340</v>
+      </c>
+      <c r="K41" t="s">
+        <v>341</v>
+      </c>
+      <c r="L41" t="s">
+        <v>342</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>251</v>
+      </c>
+      <c r="O41" t="s">
+        <v>59</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>343</v>
+      </c>
+      <c r="X41" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>346</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>347</v>
+      </c>
+      <c r="J42" t="s">
+        <v>340</v>
+      </c>
+      <c r="K42" t="s">
+        <v>348</v>
+      </c>
+      <c r="L42" t="s">
+        <v>349</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>251</v>
+      </c>
+      <c r="O42" t="s">
+        <v>59</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>343</v>
+      </c>
+      <c r="X42" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>351</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>352</v>
+      </c>
+      <c r="J43" t="s">
+        <v>340</v>
+      </c>
+      <c r="K43" t="s">
+        <v>353</v>
+      </c>
+      <c r="L43" t="s">
+        <v>354</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>251</v>
+      </c>
+      <c r="O43" t="s">
+        <v>59</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>343</v>
+      </c>
+      <c r="X43" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>356</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>357</v>
+      </c>
+      <c r="J44" t="s">
+        <v>358</v>
+      </c>
+      <c r="K44" t="s">
+        <v>359</v>
+      </c>
+      <c r="L44" t="s">
+        <v>360</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>251</v>
+      </c>
+      <c r="O44" t="s">
+        <v>59</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>361</v>
+      </c>
+      <c r="X44" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>364</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>365</v>
+      </c>
+      <c r="J45" t="s">
+        <v>366</v>
+      </c>
+      <c r="K45" t="s">
+        <v>367</v>
+      </c>
+      <c r="L45" t="s">
+        <v>368</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>251</v>
+      </c>
+      <c r="O45" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>369</v>
+      </c>
+      <c r="X45" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>372</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>373</v>
+      </c>
+      <c r="J46" t="s">
+        <v>374</v>
+      </c>
+      <c r="K46" t="s">
+        <v>132</v>
+      </c>
+      <c r="L46" t="s">
+        <v>375</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>251</v>
+      </c>
+      <c r="O46" t="s">
+        <v>59</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>369</v>
+      </c>
+      <c r="X46" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>377</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>378</v>
+      </c>
+      <c r="J47" t="s">
+        <v>379</v>
+      </c>
+      <c r="K47" t="s">
+        <v>380</v>
+      </c>
+      <c r="L47" t="s">
+        <v>381</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>251</v>
+      </c>
+      <c r="O47" t="s">
+        <v>59</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>382</v>
+      </c>
+      <c r="X47" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>385</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>386</v>
+      </c>
+      <c r="J48" t="s">
+        <v>387</v>
+      </c>
+      <c r="K48" t="s">
+        <v>388</v>
+      </c>
+      <c r="L48" t="s">
+        <v>389</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>251</v>
+      </c>
+      <c r="O48" t="s">
+        <v>125</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>390</v>
+      </c>
+      <c r="X48" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>393</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>394</v>
+      </c>
+      <c r="J49" t="s">
+        <v>395</v>
+      </c>
+      <c r="K49" t="s">
+        <v>396</v>
+      </c>
+      <c r="L49" t="s">
+        <v>397</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>251</v>
+      </c>
+      <c r="O49" t="s">
+        <v>125</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>390</v>
+      </c>
+      <c r="X49" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>399</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>400</v>
+      </c>
+      <c r="J50" t="s">
+        <v>401</v>
+      </c>
+      <c r="K50" t="s">
+        <v>402</v>
+      </c>
+      <c r="L50" t="s">
+        <v>403</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>404</v>
+      </c>
+      <c r="X50" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>407</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>408</v>
+      </c>
+      <c r="J51" t="s">
+        <v>409</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="s"/>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>410</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>411</v>
+      </c>
+      <c r="J52" t="s">
+        <v>412</v>
+      </c>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s"/>
+      <c r="M52" t="s"/>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>413</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>414</v>
+      </c>
+      <c r="J53" t="s"/>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
+      <c r="M53" t="s"/>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>415</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>416</v>
+      </c>
+      <c r="J54" t="s"/>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
+      <c r="M54" t="s"/>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>9197</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>417</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>418</v>
+      </c>
+      <c r="J55" t="s"/>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s"/>
+      <c r="M55" t="s"/>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_181.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_181.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="472">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Tricie94</t>
+  </si>
+  <si>
     <t>06/29/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>NoneReally</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r587974357-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>Stayed for a few days, room was clean.  Breakfast is basic carbs.  Front desk staff friendly and helpful.Parking is insufficient.  Pool area a nice spot to relax or have a picnic.Location is good- right next door is convenience store.  Across street is another, along with a Taco Bell.More</t>
   </si>
   <si>
+    <t>danO4548VV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r587433588-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>Super slow internet, it cuts out even while performing aspeedtest. The breakfast lady makes waffles so thin, you can see through parts of it. Pillows are 12x18 inches. The airconditioning unit is so noisy inside the room I can still hear it in my head.More</t>
   </si>
   <si>
+    <t>lularoeshana</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r580275803-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
     <t>I don't recommend this hotel if you can help it. We were lied to about shuttle times then treated badly after asking about it. Then we asked for a wake up call that we never received. We were also treated badly for bringing this up as well. There were stains on the blankets of the pull out couch.More</t>
   </si>
   <si>
+    <t>sgtwrench</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r578897371-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -276,6 +291,9 @@
     <t>they people ate the front desk were great.  the room was fine.  good shower.  get a rtd pass at 4 points and the trip to disney is ok.  the wifi is spotty but i dont stay at a motel for the wifi.  i would stay here againMore</t>
   </si>
   <si>
+    <t>listhorne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r578561890-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -300,6 +318,9 @@
     <t>The place was clean. Beds nice and soft.  We will stay there again. Walking distance from Disneyland. It was better then we had expected. It was really great they have a shuttle that will take you to and from Disneyland. More</t>
   </si>
   <si>
+    <t>ditchchamp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r576621083-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -327,6 +348,9 @@
     <t>If you are doing Disneyland this place is perfect. It is not too big, very safe and very clean, room &amp; bedding looked brand new. Great internet, large counter outside bathroom with sink and tons of space for everyone to get ready. We loved having a little fridge (bigger than a mini-fridge with a small freezer), microwave and coffee maker. Free breakfast was perfect to get us out in the morning with waffles, toast &amp; raisin bread, yogurt, oatmeal and cereals, juice and coffee and bananas. Everything was restocked during the morning. The breakfast attendant was lovely and helpful. We didn’t plan on using the shuttle since Disney is only a 15 minute walk but we did take it sometimes, Is was very convenient, a 5 minute trip and there was always room when we showed up a few minutes ahead of time. The shuttle is extremely punctual, definitely don’t expect for it to wait for you!Taco Bell is across the street.More</t>
   </si>
   <si>
+    <t>khiller84</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r574053122-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -348,6 +372,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>Pamala T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r573286963-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -378,6 +405,9 @@
     <t>Was helpful getting us checked in before check in time. Was able to get a ground floor as requested. There was someone always at the counter.More</t>
   </si>
   <si>
+    <t>KatieC1084</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r572185840-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -405,6 +435,9 @@
     <t>Recently stayed here for a quick overnight trip to Disneyland and was pleasantly surprised! The front staff was friendly and helpful and check-in was quick. The room was very spacious and clean, and the bed was one of the more comfortable ones I've experienced in the Anaheim area. We were towards the back of the unit and it was pretty quiet. WiFi worked well. We would have liked the shuttle to run a bit more often, particularly in the afternoon as we wanted to check in and take a break from Disneyland for a bit. We ended up just taking Lyft and it was a short ride, about $5 I believe. The hotel is a bit tricky to get to coming from the direction of the parks, but it wasn't a super big deal. The breakfast is the standard breads, cereal, fruit, etc. I believe they did have waffles as well. Overall, we were happy with the hotel and would stay there again.More</t>
   </si>
   <si>
+    <t>Renee K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r571926356-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -429,6 +462,9 @@
     <t>Room was great, microwave &amp; small refrigerator in the room. Breakfast was light but fine. Hotel had shuttle to Disneyland for the guest. You could take large and small strollers on the shuttle. Very convenient for guests. However, I was told that they could not accommodate a scooter. I explained, mine could be taken apart and asked if it could be placed on rack on back, but I was told it could not be. I either took the ART bus to the park or just rode my scooter over. Did like clean rooms, and convenient location ais a plus.More</t>
   </si>
   <si>
+    <t>miabbileah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r571905357-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -444,6 +480,9 @@
     <t>We booked the hotel in February 2018 for a trip to Disney. I figured we will be just sleeping there in between park time so it really doesn’t matter about the hotel really. But, unfortunately due to medical issues I was forced to cancel our trip. I called Expedia (who I booked through) and gave them the explanation and so they called this hotel AN ENTIRE MONTH PRIOR TO MY STAY to see about canceling our reservation, but after explaining to the front desk my medical issues the management still said No, they would cancel it of course, but I would get absolutely no money back which they make you pay in full at time of reservation. Ridiculous I gave the ample time to find new guests, but they are awful human beings who only care about money. Thankfully, I booked with insurance and was able to get a full refund through them, but this disgusting hotel will be renting out my room that has been PAID FOR again to some unsuspecting patron and making double off of my misfortune. So, if you’re looking for a room 4/23-4/27 this hotel already has one paid for, go ahead and let them know.More</t>
   </si>
   <si>
+    <t>Dena P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r569515956-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -468,6 +507,9 @@
     <t>Sheets were filthy. Floors made my feet black. Just not kept up. Needs professional help. Got a refund through Expedia and went somewhere else. So many other choices. Don't spend your vacation time here.More</t>
   </si>
   <si>
+    <t>G2259OOdanielm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r569503316-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -483,6 +525,9 @@
     <t>Our check in went very well and we were pleasantly happy with the general cleanliness and appearance of the room. The room had mild damage to include fraying carpet, broken bathroom door lock, and chipped paint on the inside door. Our big problem became parking late at night. The night clerk would not acknowledge us when we walked in because we interrupted his tv show on the computer. We were told parking was guaranteed, but since there was no open spots, we would have to park in an illegal spot and move the car by 7am, even though it was 12:30am. He threated us by saying “if we did not move it, something bad would happen”.  We moved our car when a spot became available to prevent damage, but a vehicle subsequently parked in the same spot we started in had cut tires. He was rude, disrespectful and would not accommodate us in any way. There were several parking spots on the property that were unusable because of poor parking jobs by others, which was the cause of the parking problem.  We will never stay here again because of the disrespect and threats of the night clerk. More</t>
   </si>
   <si>
+    <t>naik911</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r568104964-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -507,6 +552,9 @@
     <t>Throughout my entire  check in time old man who was at front desk did not get up his chair and no eye contact either. While checking out the young guy at night refused to give receipt upon many requests. I stayed by night window for 10 mins but he never came at window even after calling the desk or ringing the night bellMore</t>
   </si>
   <si>
+    <t>bromer929790</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r566686984-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -531,6 +579,9 @@
     <t>The hotel’s location is perfect for Disneyland and the room was very clean had a refrigerator and microwave, which was awesome!More</t>
   </si>
   <si>
+    <t>live213</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r566311132-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -555,6 +606,9 @@
     <t>Pros: close to Disney, 15 minute walk. Can't hear freeway Cons: messed up reservation when dates were changed (cancelled us and had to rebook once we were there checking in- could have been very catastrophic as all other hotels were full), paper thin walls, you can hear the people behind you. If upstairs room people start showering you WILL hear the pipes going (don't freak out, no one is trying to get into your room), bathroom tub chipped all over the bottom, looks very old. Dead insects inside the lights (to be expected but not that much)overall: stayed here for the free breakfast, turned out to be very very basic (we're not picky on breakfast either but all that was there was cereal, waffles, and toast.) would stay here again based solely on price and competitor availability, not by its own merits.We stay at a lot of 2 stars, this was very poor even in that class.More</t>
   </si>
   <si>
+    <t>Paul H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r565120259-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -585,6 +639,9 @@
     <t>I stayed there to be close to Disneyland and get a more economical room. Only a 10 minute walk to Disneyland More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r564097178-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -609,6 +666,9 @@
     <t>When you visit a town with a huge attraction such as Disney and attach the Disney to your name you might want to attach some of the same manners. The rooms were nice but the service needs some help, just how I saw other situations handled and then our own you could tell it was just the way management did things.  This is not a corporate hotel it's a personal owned with the name. Read the fine print and be careful. Don't ask for extra pillows for fear of being spoken to in a forien language.  The only thing hot for breakfast is the waffle maker. Internet doesnt work and if you want to stay more than 20 mins after the park closes you have to walk back or find another way because they will not come get you even with small children. Even on a budget we would should of spent the extra 30 bucks a night and stayed closer to the park....lots of nice selections there.More</t>
   </si>
   <si>
+    <t>marioheredia05</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r563723329-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -618,6 +678,9 @@
     <t>03/02/2018</t>
   </si>
   <si>
+    <t>marklemorgan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r563238266-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -642,6 +705,9 @@
     <t>I had another Hotel reservation fall through and needed a hotel at a reasonable price fast. To be honest, all I wanted was a clean bed and shower with in walking distance to Disneyland, I found one last opening on Hotels.com within my budget. When I booked it online it mentioned free parking, free continential breakfast and a shuttle service to Disneyland. When I got there, I was greeted with the shuttle service schedule and a smile. The rooms were comfortable, clean and bright. I loved that there was a microwave as well as a refridgerator. The shuttle was punctual and the driver friendly. My son and I enjoyed the spa and heated pool. The breakfast was good, but not anything to get excited about. I would have liked to see more menu choice and possibly a gluten free option. But for what I needed it for, the Days Inn &amp; Suites fit the bill perfectly. I would definitely stay there again. More</t>
   </si>
   <si>
+    <t>gcstorey75</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r561992486-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -664,6 +730,9 @@
   </si>
   <si>
     <t>I chose this Days Inn property solely for its proximity to the Disneyland Resort. While the convenience of walking to and from the parks every day was excellent, the staff was poorly trained and indifferent, and the property was showing its age. Check in was atrocious, the room was average, and the breakfast was non existent. However, the attitude of the front desk staff was by far the worst part of this stay. I am in front office management at a Four-Diamond international brand, and I would terminate every single one of your front desk agents for poor attitude, unprofessional appearance, and unfortunate indifference to the concerns of the guest. I will be paying the extra $200+ per night going forward to stay on-property with Disney because of this stay. Absolutely a bare-bones experience with far too many negatives to justify staying here going forward. Housekeeping deserves a medal for doing their jobs well and having to deal with the front desk at this property.More</t>
+  </si>
+  <si>
+    <t>Jamie Jo H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r561791219-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
@@ -724,6 +793,9 @@
     <t>The rooms were fairly clean except for the small sofa in the room which was filthy and stained, only two of the electrical plugs worked properly; however, the front desk clerk upon check-in was lacking everything that good customer service should be. I had asked for a toddler's bed (it was an option during the online booking) and he was argumentative, same with my request for a downstairs room due to bad knees (I had also called in advance to make this request). A good star, the lady in the continental breakfast area was polite, professional and a sweetheart, very attentive to all guests needs. More</t>
   </si>
   <si>
+    <t>B3917FVmartinr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r559670784-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -748,6 +820,9 @@
     <t>The hotel was very nice, quiet and clean, breakfast was ok, this was the second time we have used this hotel.More</t>
   </si>
   <si>
+    <t>Coleen G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r559271725-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -766,6 +841,9 @@
     <t>The rooms were very clean and quiet and ours had 2 queens and a fold out single couch, but it's short so better for teens or smaller humans.  Shuttle was very convenient and if you missed it the walk wasn't too bad. We stayed 6 nights and complained about Wifi multiple times but it didn't work at all for our stay.  Pool was ice cold yet it had been above 90 outside for more than a week, would be nice if they heated it.  Breakfast is very poor, bread, cereal, a staff member making waffles but they were raw.  Only banana's for fruit and 2 or 3 yogurts in the fridge every morning (we were a family of 4 so never enough for all of us) so we started eating elsewhere after a couple of days.  If you want a clean hotel that is reasonable within walking distance of park albeit a little bit of a hike, I would definitely recommend.More</t>
   </si>
   <si>
+    <t>Mmabaledi S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r558478195-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -793,6 +871,9 @@
     <t>The place was very convenient for my family's stay as it is less than a mile from Disneyland Resort and other Adventure Parks. It was as such just a walking distance to the parks. There are also lots of restaurants around, including Mac Donalds. Unfortunately there was renovation when were were at the Hotel in December, and we were not warned of this. The couch in the room was dirty and had to request that our bedding be changed as it was not clean. The lady at the breakfast area and some of the front desk staff members were super nice.More</t>
   </si>
   <si>
+    <t>medved73_2000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r557427768-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -817,6 +898,9 @@
     <t>I needed a last minute stay by Disneyland and didnt want to pay an astronomical price.you know what they say: you get what you pay for. Its okay for the price. At least the room was clean. What was weird is that they dont have a shower or tub, just a hole in the floor and the toilet is next to it. So if someone took a shower and you need to use a restroom, you literally have to sit ankles dip in water. Also, there are no door to separate a closet and restroom so if someone using a restroom, you cant get into the closet. Very weird set up. Air conditioner was bad. It either super cold or super hot.Lastly, the breakfast was by far the worst I ever got in a similar hotel. Just some bread, cereal and cold milk. It was okay to sleep for one night. At least its close to Disneyland. Not walking distance but they have a shuttle.More</t>
   </si>
   <si>
+    <t>BoKat2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r557390402-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -832,6 +916,9 @@
     <t>My overall experience with my stay was fine. The only problem I experienced was using their shuttle. The early driver was exceptionally rude and nasty to all the riders, including the children who were on their way to Disneyland for a fun day. He also ran red lights and drove aggressively with us on the shuttle bus. He had a real chip on his shoulder that he took out on everybody. When I tried to telephone back to the hotel to let the manager know the person at the desk would not let me speak to the manager because I would not give her my room number (which I chose not to give since I did not want to receive any other problems with the hotel staff in retaliation) with her being so defensive of the driver. She refused to let me speak to the manager so I have no idea if he ever received my message. The incidents were with the morning shuttle driver on January 26 &amp; 27th. The evening driver was very pleasant.More</t>
   </si>
   <si>
+    <t>311devanc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r557365170-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -847,6 +934,9 @@
     <t>I went to this hotel back in 2015 and i know they have remodeled since then. The hotel is clean and very well presented and makes it an easy location for the spots around Anaheim. I would definitely recommend this hotel More</t>
   </si>
   <si>
+    <t>alychris1017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r555537660-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -871,6 +961,9 @@
     <t>USB connections did not work in the rooms. Stains on the sofa, and they only allow one vehicle to park on the property. Shuttle times were not convenient. Had to us lift to get back after park closed. More</t>
   </si>
   <si>
+    <t>joangZ8950JL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r555188160-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -895,6 +988,9 @@
     <t>Pro: Half mile to Disney Shuttle nice but full oftenRooms CleanStaff friendlyBreakfast niceCons: Motel not hotelNoisy all around Parking and other roomsMore</t>
   </si>
   <si>
+    <t>eduardogQ2116NI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r554667752-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -919,6 +1015,9 @@
     <t>Fun stay! Everyone that work there was very friendly and the rooms were very clean. The only hiccup I had was that the internet WiFi was going in and out constantly, but I did not report that problemMore</t>
   </si>
   <si>
+    <t>W4344RUrachelh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r554261289-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -943,6 +1042,9 @@
     <t>I have been planning this trip for a few months for an annaversary surprise. We arrived on Jan. 11th, 2018 and we were supposed to stay until Jan. 14th, 2018. When we arrived, the man at the counter was very rude and seemed to not be focused on us at all. We asked questions and we talked over us and completely dismissed us. We went up to the hotel and slept horribly on the beds and when we woke up our second night, I noticed something crawling on me. I turned on the lights and there was a huge line of ants coming out of the wall from the closet (We were on the second floor). They found our food that we brought for the trip and we had to throw away most of it! We called the front desk and the person at the desk told us that they could not do anything untill the manager came at 7 (which was 40 minutes later) we had to wait for them to call us while ants were everywhere. We got the call back and at first they wanted to only send the maintenance man up when he clocked in later that day and leave us in the room. We told them no that was not okay. And after we told them that we wanted a different room they made us wait almost an hour to find one and move into...I have been planning this trip for a few months for an annaversary surprise. We arrived on Jan. 11th, 2018 and we were supposed to stay until Jan. 14th, 2018. When we arrived, the man at the counter was very rude and seemed to not be focused on us at all. We asked questions and we talked over us and completely dismissed us. We went up to the hotel and slept horribly on the beds and when we woke up our second night, I noticed something crawling on me. I turned on the lights and there was a huge line of ants coming out of the wall from the closet (We were on the second floor). They found our food that we brought for the trip and we had to throw away most of it! We called the front desk and the person at the desk told us that they could not do anything untill the manager came at 7 (which was 40 minutes later) we had to wait for them to call us while ants were everywhere. We got the call back and at first they wanted to only send the maintenance man up when he clocked in later that day and leave us in the room. We told them no that was not okay. And after we told them that we wanted a different room they made us wait almost an hour to find one and move into one. They were very rude about the entire thing. We were quite upset on our annaversary. More</t>
   </si>
   <si>
+    <t>patriciabK9698QJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r554224781-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -964,6 +1066,9 @@
     <t>This is a family location, lots of kids running up and down the stairs, screaming. Walls are not sound proof. Two receptionists, but only one worked.More</t>
   </si>
   <si>
+    <t>I9625GBchrisr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r553981136-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -988,6 +1093,9 @@
     <t>We stayed in January of 2018 for a Disneyland family vacation. The staff is courteous and helpful and the property is in decent shape with signs of renovation throughout. The breakfast is adequate, cold cereal, waffles, juice and coffee. The shuttle is helpful but packed in the morning and the evening and could run more often to be more convenient. More</t>
   </si>
   <si>
+    <t>Tracey D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r553222408-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1012,6 +1120,9 @@
     <t>We planned a last minute trip to Disney Land and there weren't a lot of hotels that were within close walking distance available. This property offered a fairly close location, free wi-fi, free parking and breakfast included which were all things I was looking for. The room was clean and a little more spacious than some hotel rooms. The beds were comfortable. My only complaint would be that they claim to have a free shuttle to Disney Land but unfortunately it doesn't run very often. The first one leaves at 7:40am from the hotel and that is way too late. If you want to be in the park by 8:00 am you need to start earlier than that to get through security and then the line to the park. The shuttle needs to start earlier and run more frequently.More</t>
   </si>
   <si>
+    <t>Jan2018angel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r553217060-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1027,6 +1138,9 @@
     <t>The room was clean and nice however the beds were very uncomfortable. The pull out sofa was so bad my children had to sleep with my husband and I had to sleep on the sofa bed and it was awful. My husband was up several times because the King bed was so hard and uncomfortable. I was very disappointed after a long day at Disneyland for such a horrible sleep. More</t>
   </si>
   <si>
+    <t>VangieMendez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r553192398-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1042,6 +1156,9 @@
     <t>We were leary booking this hotel since i usually only stay at the embassy, but they were a welcomed surprise! the staff is very friendly and they offer a free shuttle to Disneyland. the only down side was the free breakfast, it is just waffles, coffee, juice and toast, but hey the price here is great and it is clean so that is okay. oh also the rooms have a Disney picture in them which really ties in on your experience to Disneyland!More</t>
   </si>
   <si>
+    <t>bparra719</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r551603559-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1066,6 +1183,9 @@
     <t>We used the room just to sleep the hotel was ok for just that. If you're looking to relax, go somewhere else. The windows and doors are paper thin you can literally hear a pin drop outside from the inside. They need to invest in some sort of "sound proof" for the doors and windows. Thankfully, we were on the second floor (top floor), so we don't know what the noise upstairs would be like. The breakfast, REALLY?. Cereal and toast.....that's all you get, why even bother? there is not variety. Finally the room itself was clean BUT the job they did in "renovating" was very sloppy. The caulking is all over the place, the shower faucet was pulled out from the wall, there were rust stains all over the bathtub and we got a ripped shower curtain so whenever we showered the water came onto the bathroom floor. Overall - I've been to better places......The staff - they were all very friendly but didn't know much about the area or our booking, we had to call an 800 number to change the reservation AND to figure out my WiFi issue, they couldn't help me much, they're just there to have a body in the office I guess. More</t>
   </si>
   <si>
+    <t>J4809WKkimberlyw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r551601075-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1081,6 +1201,9 @@
     <t>Keeping in mind that my expectations were based on what I feel a hotel at the level an Inn should be versus if I were staying at a hotel at the level like the Marriott, my overall experience was above satisfactory. With that in mind, there were two things that felt if possible the hotel could improve in order to better service their customers;1st- Shuttle Service  Frequency of the times to for from Disneyland, based on the more demanding times of day. Also, the ability for customers to request a ride if their departure time falls within the time were there is a big gap (ex. between 1:30pm - 4:30pm). Larger shuttle vans in order accommodate all guest. For an example one morning despite me being the third person in line to depart, upon actually departing time because the first person who had been standing there solo family of 8 came out I was forced to wait...More</t>
   </si>
   <si>
+    <t>Kris S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r551538859-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1096,6 +1219,9 @@
     <t>The hotel is near from the parks, you can walk. The room was really clean, bathroom as well. Pool was perfect for us. Really clean. I really recommend this hotel.More</t>
   </si>
   <si>
+    <t>debbiebU2376UU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r550922306-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1120,6 +1246,9 @@
     <t>This hotel was a good value. Room was clean and spacious. Comfortable beds! Breakfast wasn't much. It definitely needs to run more shuttles to Disney. Wait times were awful for the limited seating of the shuttle.More</t>
   </si>
   <si>
+    <t>Tracy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r550235322-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1144,6 +1273,9 @@
     <t>Rooms where clean free shuttle was a plus you can see the fire works from Disney was a nice surprise staff was friendly I don’t agree with smoking right next to the entrance I would stay again if I was to return to the areaMore</t>
   </si>
   <si>
+    <t>647christineo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r550107001-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1159,6 +1291,9 @@
     <t>Location was great and they offer free shuttle to and from Disneyland. Rooms were decent. the bathroom and vanity could use some love and updating. Breakfast is nothing fancy - waffles and Cereal was pretty much the most of it. Beds were decent.More</t>
   </si>
   <si>
+    <t>Alsturg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r548688988-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1183,6 +1318,9 @@
     <t>We had a good stay at the Days Inn. It was close to Disneyland and the shuttle they offered was helpful and right on time. Breakfast was good. Basic breakfast of toast, yogurt, waffles, cereal, coffee and juice. The staff was nice. We checked in with Sonny and she was very nice and helpful. Only complaint would be the cost of a late check out. Check out is at 11am and our flight wasn’t until 7:30pm so we inquired about paying a fee to check out a little later. The fee to extend the check out to 3pm is $75 which is a little high considering that’s more than half the cost for one whole night so we just check out on time and found our own entertainment until our flight home. I would also recommend more tables during breakfast. One morning we were waiting for about 15 minutes for a table, then eventually left and at breakfast elsewhere but other than those two minor issues, we were pleased with out stay. More</t>
   </si>
   <si>
+    <t>robin_stevens2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r547209201-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1207,6 +1345,9 @@
     <t>Were do I start, 1st off a mask was found in a clean bed. 2nd of the blow dryer went out and no effort was made to get it replaced. Could not access the WiFi, not even through the help of there WiFi help line. They ran out of bread for there continental breakfast. Also there transportation times back and forth from the hotel to Disneyland were horrible, they offered nothing between 5:30 and 8:30.More</t>
   </si>
   <si>
+    <t>emf919</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r547114479-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1225,6 +1366,9 @@
     <t>Very clean, very comfortable. Free shuttle to Disneyland was a plus. We had a large group and the manager had the shuttle make a special trip to Downtown disney district for us. More</t>
   </si>
   <si>
+    <t>Katerina S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r543717939-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1249,6 +1393,9 @@
     <t>Hotel is very loud, not very clean and doesn’t feel welcoming. Location is ok tho. I wouldn’t stay again. Breakfast has 0 protein, just unhealthy carbs. Coffee is ok tho. Staff is one of the better features too.More</t>
   </si>
   <si>
+    <t>Christophe G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r542674655-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1258,6 +1405,9 @@
     <t>11/22/2017</t>
   </si>
   <si>
+    <t>mattsA2655SK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r542109315-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1267,16 +1417,25 @@
     <t>11/19/2017</t>
   </si>
   <si>
+    <t>Julie A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r541407926-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
     <t>541407926</t>
   </si>
   <si>
+    <t>252logans</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r540037209-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
   </si>
   <si>
     <t>540037209</t>
+  </si>
+  <si>
+    <t>Celia S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75637-r539867179-Days_Inn_Suites_by_Wyndham_Anaheim_at_Disneyland_Park-Anaheim_California.html</t>
@@ -1787,43 +1946,47 @@
       <c r="A2" t="n">
         <v>9197</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>134346</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1837,50 +2000,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>9197</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>134347</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1892,56 +2059,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>9197</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>134348</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -1963,56 +2134,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>9197</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>134349</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -2034,56 +2209,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>9197</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>134350</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
         <v>78</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>74</v>
-      </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2099,56 +2278,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="X6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>9197</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>134351</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -2170,56 +2353,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="X7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>9197</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>134352</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2231,54 +2418,58 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="X8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>9197</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>134353</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>106</v>
       </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>99</v>
-      </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -2300,56 +2491,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="X9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>9197</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>134354</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="O10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2371,56 +2566,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="X10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>9197</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>134355</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
+        <v>134</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
         <v>124</v>
       </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>115</v>
-      </c>
       <c r="O11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -2442,56 +2641,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="X11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Y11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>9197</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>26618</v>
+      </c>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2513,56 +2716,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="X12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="Y12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>9197</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>134356</v>
+      </c>
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="K13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="L13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2574,56 +2781,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="X13" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="Y13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>9197</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>18950</v>
+      </c>
+      <c r="C14" t="s">
+        <v>154</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -2641,56 +2852,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="X14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="Y14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>9197</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>134357</v>
+      </c>
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="K15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -2712,56 +2927,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="X15" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="Y15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>9197</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>134358</v>
+      </c>
+      <c r="C16" t="s">
+        <v>169</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="J16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="K16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="O16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P16" t="n">
         <v>2</v>
@@ -2783,56 +3002,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="X16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="Y16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>9197</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>134359</v>
+      </c>
+      <c r="C17" t="s">
+        <v>178</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="J17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="K17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -2854,56 +3077,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="X17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="Y17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>9197</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>134360</v>
+      </c>
+      <c r="C18" t="s">
+        <v>187</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="J18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="K18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2915,56 +3142,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="X18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="Y18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>9197</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>123</v>
+      </c>
+      <c r="C19" t="s">
+        <v>196</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="J19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="K19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="O19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2986,56 +3217,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="X19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="Y19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>9197</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>207</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="J20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="K20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -3057,54 +3292,58 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="X20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="Y20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>9197</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>134361</v>
+      </c>
+      <c r="C21" t="s">
+        <v>216</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="J21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="O21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -3126,56 +3365,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="X21" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="Y21" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>9197</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>134362</v>
+      </c>
+      <c r="C22" t="s">
+        <v>220</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="J22" t="s">
+        <v>223</v>
+      </c>
+      <c r="K22" t="s">
+        <v>224</v>
+      </c>
+      <c r="L22" t="s">
+        <v>225</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
         <v>202</v>
       </c>
-      <c r="K22" t="s">
-        <v>203</v>
-      </c>
-      <c r="L22" t="s">
-        <v>204</v>
-      </c>
-      <c r="M22" t="n">
-        <v>4</v>
-      </c>
-      <c r="N22" t="s">
-        <v>184</v>
-      </c>
       <c r="O22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3197,56 +3440,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="X22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="Y22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>9197</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>134363</v>
+      </c>
+      <c r="C23" t="s">
+        <v>229</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="J23" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="K23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="O23" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
@@ -3268,56 +3515,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="X23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="Y23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>9197</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>134364</v>
+      </c>
+      <c r="C24" t="s">
+        <v>238</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="J24" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="K24" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3329,56 +3580,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="X24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="Y24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>9197</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>207</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="J25" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="K25" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="L25" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="O25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -3400,56 +3655,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="X25" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="Y25" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>9197</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>134365</v>
+      </c>
+      <c r="C26" t="s">
+        <v>255</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="J26" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="K26" t="s">
         <v>12</v>
       </c>
       <c r="L26" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="O26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -3471,56 +3730,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="X26" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="Y26" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>9197</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>134366</v>
+      </c>
+      <c r="C27" t="s">
+        <v>264</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="J27" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="K27" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="O27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3538,56 +3801,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="X27" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="Y27" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>9197</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>134367</v>
+      </c>
+      <c r="C28" t="s">
+        <v>271</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="J28" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="K28" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="L28" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="O28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -3605,56 +3872,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="X28" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="Y28" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>9197</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>134368</v>
+      </c>
+      <c r="C29" t="s">
+        <v>281</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="J29" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="K29" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="L29" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="O29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -3670,56 +3941,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="X29" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="Y29" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>9197</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>134369</v>
+      </c>
+      <c r="C30" t="s">
+        <v>290</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="J30" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="K30" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="L30" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="O30" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -3741,56 +4016,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="X30" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="Y30" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>9197</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>134370</v>
+      </c>
+      <c r="C31" t="s">
+        <v>296</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="J31" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="K31" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="L31" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3812,56 +4091,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="X31" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="Y31" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>9197</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>134371</v>
+      </c>
+      <c r="C32" t="s">
+        <v>302</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="J32" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="K32" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="L32" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="O32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3883,56 +4166,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="X32" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="Y32" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>9197</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>134372</v>
+      </c>
+      <c r="C33" t="s">
+        <v>311</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="J33" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="K33" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="L33" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="O33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -3954,56 +4241,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="X33" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="Y33" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>9197</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>134373</v>
+      </c>
+      <c r="C34" t="s">
+        <v>320</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="J34" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="K34" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="L34" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="O34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4025,56 +4316,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="X34" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="Y34" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>9197</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>134374</v>
+      </c>
+      <c r="C35" t="s">
+        <v>329</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="J35" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="K35" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="L35" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>2</v>
@@ -4096,56 +4391,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="X35" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="Y35" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>9197</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>134375</v>
+      </c>
+      <c r="C36" t="s">
+        <v>338</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="J36" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="K36" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="L36" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -4167,56 +4466,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="X36" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="Y36" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>9197</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>134376</v>
+      </c>
+      <c r="C37" t="s">
+        <v>346</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="J37" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="K37" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="L37" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="O37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -4238,56 +4541,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="X37" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="Y37" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>9197</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>52279</v>
+      </c>
+      <c r="C38" t="s">
+        <v>355</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="J38" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="K38" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="L38" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="O38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4309,56 +4616,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="X38" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="Y38" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>9197</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>134377</v>
+      </c>
+      <c r="C39" t="s">
+        <v>364</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="J39" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="K39" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="L39" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="O39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -4380,56 +4691,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="X39" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="Y39" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>9197</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>134378</v>
+      </c>
+      <c r="C40" t="s">
+        <v>370</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="J40" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="K40" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="L40" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="O40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4451,56 +4766,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="X40" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="Y40" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>9197</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>134379</v>
+      </c>
+      <c r="C41" t="s">
+        <v>376</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="J41" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="K41" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="L41" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="O41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P41" t="n">
         <v>2</v>
@@ -4522,56 +4841,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="X41" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="Y41" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>9197</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>134380</v>
+      </c>
+      <c r="C42" t="s">
+        <v>385</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="J42" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="K42" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="L42" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="O42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -4593,56 +4916,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="X42" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="Y42" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>9197</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>57653</v>
+      </c>
+      <c r="C43" t="s">
+        <v>391</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="J43" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="K43" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="L43" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="O43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -4664,56 +4991,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="X43" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="Y43" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>9197</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>134381</v>
+      </c>
+      <c r="C44" t="s">
+        <v>397</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="J44" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="K44" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="L44" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="O44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4735,56 +5066,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="X44" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="Y44" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>9197</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>10901</v>
+      </c>
+      <c r="C45" t="s">
+        <v>406</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="J45" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="K45" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="L45" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="O45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4796,56 +5131,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="X45" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="Y45" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>9197</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>134382</v>
+      </c>
+      <c r="C46" t="s">
+        <v>415</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="J46" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="K46" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="L46" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="O46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -4867,56 +5206,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="X46" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="Y46" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>9197</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>134383</v>
+      </c>
+      <c r="C47" t="s">
+        <v>421</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="J47" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="K47" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="L47" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="O47" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4938,56 +5281,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="X47" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="Y47" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>9197</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>134384</v>
+      </c>
+      <c r="C48" t="s">
+        <v>430</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="J48" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="K48" t="s">
-        <v>388</v>
+        <v>434</v>
       </c>
       <c r="L48" t="s">
-        <v>389</v>
+        <v>435</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="O48" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P48" t="n">
         <v>1</v>
@@ -5009,56 +5356,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>390</v>
+        <v>436</v>
       </c>
       <c r="X48" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="Y48" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>9197</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>134385</v>
+      </c>
+      <c r="C49" t="s">
+        <v>439</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="J49" t="s">
-        <v>395</v>
+        <v>442</v>
       </c>
       <c r="K49" t="s">
-        <v>396</v>
+        <v>443</v>
       </c>
       <c r="L49" t="s">
-        <v>397</v>
+        <v>444</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="O49" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5080,47 +5431,51 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>390</v>
+        <v>436</v>
       </c>
       <c r="X49" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="Y49" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>9197</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>134386</v>
+      </c>
+      <c r="C50" t="s">
+        <v>446</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="J50" t="s">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="K50" t="s">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="L50" t="s">
-        <v>403</v>
+        <v>451</v>
       </c>
       <c r="M50" t="n">
         <v>2</v>
@@ -5137,41 +5492,45 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>404</v>
+        <v>452</v>
       </c>
       <c r="X50" t="s">
-        <v>405</v>
+        <v>453</v>
       </c>
       <c r="Y50" t="s">
-        <v>406</v>
+        <v>454</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>9197</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>134387</v>
+      </c>
+      <c r="C51" t="s">
+        <v>455</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="J51" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="K51" t="s"/>
       <c r="L51" t="s"/>
@@ -5187,36 +5546,37 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
-      <c r="Y51" t="s"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>9197</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>134388</v>
+      </c>
+      <c r="C52" t="s">
+        <v>459</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
       <c r="J52" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="K52" t="s"/>
       <c r="L52" t="s"/>
@@ -5232,33 +5592,34 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
-      <c r="Y52" t="s"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>9197</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>29725</v>
+      </c>
+      <c r="C53" t="s">
+        <v>463</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
       <c r="J53" t="s"/>
       <c r="K53" t="s"/>
@@ -5275,33 +5636,34 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
-      <c r="Y53" t="s"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>9197</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>134389</v>
+      </c>
+      <c r="C54" t="s">
+        <v>466</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="J54" t="s"/>
       <c r="K54" t="s"/>
@@ -5318,33 +5680,34 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
-      <c r="Y54" t="s"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>9197</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>35097</v>
+      </c>
+      <c r="C55" t="s">
+        <v>469</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="J55" t="s"/>
       <c r="K55" t="s"/>
@@ -5361,9 +5724,6 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
-      <c r="Y55" t="s"/>
     </row>
   </sheetData>
 </worksheet>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_181.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_181.xlsx
@@ -1947,7 +1947,7 @@
         <v>9197</v>
       </c>
       <c r="B2" t="n">
-        <v>134346</v>
+        <v>165228</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -2008,7 +2008,7 @@
         <v>9197</v>
       </c>
       <c r="B3" t="n">
-        <v>134347</v>
+        <v>165229</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -2073,7 +2073,7 @@
         <v>9197</v>
       </c>
       <c r="B4" t="n">
-        <v>134348</v>
+        <v>165230</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
@@ -2148,7 +2148,7 @@
         <v>9197</v>
       </c>
       <c r="B5" t="n">
-        <v>134349</v>
+        <v>165231</v>
       </c>
       <c r="C5" t="s">
         <v>72</v>
@@ -2223,7 +2223,7 @@
         <v>9197</v>
       </c>
       <c r="B6" t="n">
-        <v>134350</v>
+        <v>134382</v>
       </c>
       <c r="C6" t="s">
         <v>82</v>
@@ -2292,7 +2292,7 @@
         <v>9197</v>
       </c>
       <c r="B7" t="n">
-        <v>134351</v>
+        <v>165232</v>
       </c>
       <c r="C7" t="s">
         <v>91</v>
@@ -2367,7 +2367,7 @@
         <v>9197</v>
       </c>
       <c r="B8" t="n">
-        <v>134352</v>
+        <v>165233</v>
       </c>
       <c r="C8" t="s">
         <v>100</v>
@@ -2432,7 +2432,7 @@
         <v>9197</v>
       </c>
       <c r="B9" t="n">
-        <v>134353</v>
+        <v>165234</v>
       </c>
       <c r="C9" t="s">
         <v>110</v>
@@ -2505,7 +2505,7 @@
         <v>9197</v>
       </c>
       <c r="B10" t="n">
-        <v>134354</v>
+        <v>165235</v>
       </c>
       <c r="C10" t="s">
         <v>118</v>
@@ -2580,7 +2580,7 @@
         <v>9197</v>
       </c>
       <c r="B11" t="n">
-        <v>134355</v>
+        <v>165236</v>
       </c>
       <c r="C11" t="s">
         <v>129</v>
@@ -2730,7 +2730,7 @@
         <v>9197</v>
       </c>
       <c r="B13" t="n">
-        <v>134356</v>
+        <v>165237</v>
       </c>
       <c r="C13" t="s">
         <v>148</v>
@@ -2866,7 +2866,7 @@
         <v>9197</v>
       </c>
       <c r="B15" t="n">
-        <v>134357</v>
+        <v>165238</v>
       </c>
       <c r="C15" t="s">
         <v>163</v>
@@ -2941,7 +2941,7 @@
         <v>9197</v>
       </c>
       <c r="B16" t="n">
-        <v>134358</v>
+        <v>165239</v>
       </c>
       <c r="C16" t="s">
         <v>169</v>
@@ -3016,7 +3016,7 @@
         <v>9197</v>
       </c>
       <c r="B17" t="n">
-        <v>134359</v>
+        <v>165240</v>
       </c>
       <c r="C17" t="s">
         <v>178</v>
@@ -3091,7 +3091,7 @@
         <v>9197</v>
       </c>
       <c r="B18" t="n">
-        <v>134360</v>
+        <v>165241</v>
       </c>
       <c r="C18" t="s">
         <v>187</v>
@@ -3306,7 +3306,7 @@
         <v>9197</v>
       </c>
       <c r="B21" t="n">
-        <v>134361</v>
+        <v>165242</v>
       </c>
       <c r="C21" t="s">
         <v>216</v>
@@ -3379,7 +3379,7 @@
         <v>9197</v>
       </c>
       <c r="B22" t="n">
-        <v>134362</v>
+        <v>165243</v>
       </c>
       <c r="C22" t="s">
         <v>220</v>
@@ -3454,7 +3454,7 @@
         <v>9197</v>
       </c>
       <c r="B23" t="n">
-        <v>134363</v>
+        <v>165244</v>
       </c>
       <c r="C23" t="s">
         <v>229</v>
@@ -3529,7 +3529,7 @@
         <v>9197</v>
       </c>
       <c r="B24" t="n">
-        <v>134364</v>
+        <v>165245</v>
       </c>
       <c r="C24" t="s">
         <v>238</v>
@@ -3669,7 +3669,7 @@
         <v>9197</v>
       </c>
       <c r="B26" t="n">
-        <v>134365</v>
+        <v>165246</v>
       </c>
       <c r="C26" t="s">
         <v>255</v>
@@ -3744,7 +3744,7 @@
         <v>9197</v>
       </c>
       <c r="B27" t="n">
-        <v>134366</v>
+        <v>165247</v>
       </c>
       <c r="C27" t="s">
         <v>264</v>
@@ -3815,7 +3815,7 @@
         <v>9197</v>
       </c>
       <c r="B28" t="n">
-        <v>134367</v>
+        <v>165248</v>
       </c>
       <c r="C28" t="s">
         <v>271</v>
@@ -3886,7 +3886,7 @@
         <v>9197</v>
       </c>
       <c r="B29" t="n">
-        <v>134368</v>
+        <v>165249</v>
       </c>
       <c r="C29" t="s">
         <v>281</v>
@@ -3955,7 +3955,7 @@
         <v>9197</v>
       </c>
       <c r="B30" t="n">
-        <v>134369</v>
+        <v>165250</v>
       </c>
       <c r="C30" t="s">
         <v>290</v>
@@ -4030,7 +4030,7 @@
         <v>9197</v>
       </c>
       <c r="B31" t="n">
-        <v>134370</v>
+        <v>165251</v>
       </c>
       <c r="C31" t="s">
         <v>296</v>
@@ -4105,7 +4105,7 @@
         <v>9197</v>
       </c>
       <c r="B32" t="n">
-        <v>134371</v>
+        <v>165252</v>
       </c>
       <c r="C32" t="s">
         <v>302</v>
@@ -4180,7 +4180,7 @@
         <v>9197</v>
       </c>
       <c r="B33" t="n">
-        <v>134372</v>
+        <v>165253</v>
       </c>
       <c r="C33" t="s">
         <v>311</v>
@@ -4255,7 +4255,7 @@
         <v>9197</v>
       </c>
       <c r="B34" t="n">
-        <v>134373</v>
+        <v>165254</v>
       </c>
       <c r="C34" t="s">
         <v>320</v>
@@ -4330,7 +4330,7 @@
         <v>9197</v>
       </c>
       <c r="B35" t="n">
-        <v>134374</v>
+        <v>165255</v>
       </c>
       <c r="C35" t="s">
         <v>329</v>
@@ -4405,7 +4405,7 @@
         <v>9197</v>
       </c>
       <c r="B36" t="n">
-        <v>134375</v>
+        <v>165256</v>
       </c>
       <c r="C36" t="s">
         <v>338</v>
@@ -4480,7 +4480,7 @@
         <v>9197</v>
       </c>
       <c r="B37" t="n">
-        <v>134376</v>
+        <v>165257</v>
       </c>
       <c r="C37" t="s">
         <v>346</v>
@@ -4630,7 +4630,7 @@
         <v>9197</v>
       </c>
       <c r="B39" t="n">
-        <v>134377</v>
+        <v>165258</v>
       </c>
       <c r="C39" t="s">
         <v>364</v>
@@ -4705,7 +4705,7 @@
         <v>9197</v>
       </c>
       <c r="B40" t="n">
-        <v>134378</v>
+        <v>165259</v>
       </c>
       <c r="C40" t="s">
         <v>370</v>
@@ -4780,7 +4780,7 @@
         <v>9197</v>
       </c>
       <c r="B41" t="n">
-        <v>134379</v>
+        <v>165260</v>
       </c>
       <c r="C41" t="s">
         <v>376</v>
@@ -4855,7 +4855,7 @@
         <v>9197</v>
       </c>
       <c r="B42" t="n">
-        <v>134380</v>
+        <v>165261</v>
       </c>
       <c r="C42" t="s">
         <v>385</v>
@@ -5005,7 +5005,7 @@
         <v>9197</v>
       </c>
       <c r="B44" t="n">
-        <v>134381</v>
+        <v>165262</v>
       </c>
       <c r="C44" t="s">
         <v>397</v>
@@ -5145,7 +5145,7 @@
         <v>9197</v>
       </c>
       <c r="B46" t="n">
-        <v>134382</v>
+        <v>165263</v>
       </c>
       <c r="C46" t="s">
         <v>415</v>
@@ -5220,7 +5220,7 @@
         <v>9197</v>
       </c>
       <c r="B47" t="n">
-        <v>134383</v>
+        <v>165264</v>
       </c>
       <c r="C47" t="s">
         <v>421</v>
@@ -5295,7 +5295,7 @@
         <v>9197</v>
       </c>
       <c r="B48" t="n">
-        <v>134384</v>
+        <v>165265</v>
       </c>
       <c r="C48" t="s">
         <v>430</v>
@@ -5370,7 +5370,7 @@
         <v>9197</v>
       </c>
       <c r="B49" t="n">
-        <v>134385</v>
+        <v>165266</v>
       </c>
       <c r="C49" t="s">
         <v>439</v>
@@ -5445,7 +5445,7 @@
         <v>9197</v>
       </c>
       <c r="B50" t="n">
-        <v>134386</v>
+        <v>165267</v>
       </c>
       <c r="C50" t="s">
         <v>446</v>
@@ -5506,7 +5506,7 @@
         <v>9197</v>
       </c>
       <c r="B51" t="n">
-        <v>134387</v>
+        <v>165268</v>
       </c>
       <c r="C51" t="s">
         <v>455</v>
@@ -5552,7 +5552,7 @@
         <v>9197</v>
       </c>
       <c r="B52" t="n">
-        <v>134388</v>
+        <v>165269</v>
       </c>
       <c r="C52" t="s">
         <v>459</v>
@@ -5642,7 +5642,7 @@
         <v>9197</v>
       </c>
       <c r="B54" t="n">
-        <v>134389</v>
+        <v>165270</v>
       </c>
       <c r="C54" t="s">
         <v>466</v>
